--- a/src/main/resources/template/Production-PlanLv-Template.xlsx
+++ b/src/main/resources/template/Production-PlanLv-Template.xlsx
@@ -4,29 +4,30 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="1020" windowWidth="16170" windowHeight="7650" tabRatio="862" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="4350" yWindow="1020" windowWidth="16170" windowHeight="7650" tabRatio="862"/>
   </bookViews>
   <sheets>
     <sheet name="MTL KBank HIP - Tele" sheetId="2" r:id="rId1"/>
-    <sheet name="MTL KBank PA Cash Back - Tele" sheetId="19" r:id="rId2"/>
+    <sheet name="MTL KBank PA CB - Tele" sheetId="19" r:id="rId2"/>
     <sheet name="MTL KBank HRC - Tele" sheetId="31" r:id="rId3"/>
-    <sheet name="MTI KBank - Tele" sheetId="20" r:id="rId4"/>
-    <sheet name="MTI PA Cash back - Tele" sheetId="29" r:id="rId5"/>
-    <sheet name="MTI POM PA Cash back - Tele" sheetId="30" r:id="rId6"/>
+    <sheet name="MTI KBank SafetyCare - Tele" sheetId="20" r:id="rId4"/>
+    <sheet name="MTI KBank PA CB - Tele" sheetId="29" r:id="rId5"/>
+    <sheet name="MTI KBank POM PA CB - Tele" sheetId="30" r:id="rId6"/>
     <sheet name="MSIG UOB - Tele" sheetId="3" r:id="rId7"/>
-    <sheet name="MTL Broker - OTO" sheetId="23" r:id="rId8"/>
-    <sheet name="MTL POM - OTO" sheetId="27" r:id="rId9"/>
-    <sheet name="MTL WIN - OTO" sheetId="28" r:id="rId10"/>
-    <sheet name="MSIG Happy Life - OTO" sheetId="25" r:id="rId11"/>
-    <sheet name="MSIG POM Enjoy Life - OTO" sheetId="26" r:id="rId12"/>
-    <sheet name="FWD TVD - OTO" sheetId="33" r:id="rId13"/>
+    <sheet name="MTL Broker V-Club - Tele" sheetId="34" r:id="rId8"/>
+    <sheet name="MTL HIP Broker - OTO" sheetId="23" r:id="rId9"/>
+    <sheet name="MTL POM PA - OTO" sheetId="27" r:id="rId10"/>
+    <sheet name="MTL POM WIN - OTO" sheetId="28" r:id="rId11"/>
+    <sheet name="MSIG Happy Life - OTO" sheetId="25" r:id="rId12"/>
+    <sheet name="MSIG Broker POM - OTO" sheetId="26" r:id="rId13"/>
+    <sheet name="FWD TVD - OTO" sheetId="33" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="203">
   <si>
     <t>Main Insured</t>
   </si>
@@ -1217,6 +1218,9 @@
   </si>
   <si>
     <t>MMM-yy</t>
+  </si>
+  <si>
+    <t>141BK1715L07</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1578,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1705,12 +1709,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -2531,7 +2529,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="408">
+  <cellXfs count="415">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3229,14 +3227,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3250,61 +3242,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="62" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3314,15 +3264,9 @@
     <xf numFmtId="167" fontId="45" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3347,92 +3291,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="63" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="64" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="22" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="45" fillId="22" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="22" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="22" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="22" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="22" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3440,114 +3312,261 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="7" fontId="47" fillId="22" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="48" fillId="22" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="45" fillId="22" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="22" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="51" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="50" fillId="22" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="22" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="22" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="22" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="22" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="22" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="22" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="22" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="48" fillId="22" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="47" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="7" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="45" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="45" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3577,6 +3596,15 @@
     <xf numFmtId="0" fontId="2" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="20" fillId="9" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3589,19 +3617,10 @@
     <xf numFmtId="4" fontId="20" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="20" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="20" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="20" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="16" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4097,8 +4116,8 @@
   </sheetPr>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="36" customHeight="1"/>
@@ -4107,34 +4126,34 @@
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="367" t="s">
+      <c r="B1" s="374" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="369"/>
+      <c r="C1" s="375"/>
+      <c r="D1" s="375"/>
+      <c r="E1" s="375"/>
+      <c r="F1" s="375"/>
+      <c r="G1" s="375"/>
+      <c r="H1" s="375"/>
+      <c r="I1" s="376"/>
     </row>
     <row r="2" spans="1:15" ht="36" customHeight="1">
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="366" t="s">
+      <c r="B2" s="373" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366"/>
-      <c r="F2" s="366" t="s">
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373"/>
+      <c r="F2" s="373" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="366"/>
-      <c r="H2" s="366"/>
-      <c r="I2" s="366"/>
-      <c r="K2" s="285"/>
+      <c r="G2" s="373"/>
+      <c r="H2" s="373"/>
+      <c r="I2" s="373"/>
+      <c r="K2" s="267"/>
     </row>
     <row r="3" spans="1:15" ht="36" customHeight="1">
       <c r="A3" s="219" t="s">
@@ -4164,7 +4183,7 @@
       <c r="I3" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="285"/>
+      <c r="K3" s="267"/>
       <c r="M3" s="242"/>
     </row>
     <row r="4" spans="1:15" ht="36" customHeight="1">
@@ -4199,7 +4218,7 @@
         <f>SUM(B4:I4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="285"/>
+      <c r="K4" s="267"/>
       <c r="L4" s="241"/>
     </row>
     <row r="5" spans="1:15" ht="36" customHeight="1">
@@ -4234,7 +4253,7 @@
         <f>SUM(B5:I5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="285"/>
+      <c r="K5" s="267"/>
       <c r="L5" s="241"/>
       <c r="M5" s="242"/>
     </row>
@@ -4270,23 +4289,23 @@
         <f>IF(J4 = 0, 0, J5/12/J4)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="285"/>
+      <c r="K6" s="267"/>
       <c r="L6" s="241"/>
     </row>
     <row r="7" spans="1:15" ht="36" customHeight="1">
-      <c r="A7" s="370" t="s">
+      <c r="A7" s="377" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="371"/>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
-      <c r="F7" s="371"/>
-      <c r="G7" s="371"/>
-      <c r="H7" s="371"/>
-      <c r="I7" s="372"/>
+      <c r="B7" s="378"/>
+      <c r="C7" s="378"/>
+      <c r="D7" s="378"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="378"/>
+      <c r="G7" s="378"/>
+      <c r="H7" s="378"/>
+      <c r="I7" s="379"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="285"/>
+      <c r="K7" s="267"/>
       <c r="L7" s="241"/>
     </row>
     <row r="8" spans="1:15" ht="36" customHeight="1">
@@ -4302,7 +4321,7 @@
       <c r="D8" s="11">
         <v>0</v>
       </c>
-      <c r="E8" s="339">
+      <c r="E8" s="284">
         <v>0</v>
       </c>
       <c r="F8" s="11">
@@ -4321,7 +4340,7 @@
         <f>SUM(B8:I8)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="285"/>
+      <c r="K8" s="267"/>
       <c r="L8" s="241"/>
       <c r="N8" s="243"/>
     </row>
@@ -4357,7 +4376,7 @@
         <f>SUM(B9:I9)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="285"/>
+      <c r="K9" s="267"/>
       <c r="L9" s="241"/>
       <c r="O9" s="243"/>
     </row>
@@ -4393,45 +4412,45 @@
         <f>IF(J8 = 0, 0, J9/12/J8)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="285"/>
+      <c r="K10" s="267"/>
       <c r="L10" s="241"/>
-      <c r="M10" s="256"/>
+      <c r="M10" s="254"/>
       <c r="O10" s="242"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="N11" s="242"/>
     </row>
-    <row r="12" spans="1:15" s="322" customFormat="1" ht="15" customHeight="1">
-      <c r="B12" s="323"/>
-      <c r="C12" s="323"/>
-      <c r="D12" s="323"/>
-      <c r="E12" s="323"/>
-      <c r="F12" s="323"/>
-      <c r="G12" s="323"/>
-      <c r="H12" s="323"/>
-      <c r="I12" s="323"/>
-      <c r="L12" s="324"/>
-    </row>
-    <row r="13" spans="1:15" s="322" customFormat="1" ht="15" customHeight="1">
-      <c r="B13" s="325"/>
-      <c r="C13" s="325"/>
-      <c r="D13" s="325"/>
-      <c r="E13" s="325"/>
-      <c r="F13" s="325"/>
-      <c r="G13" s="325"/>
-      <c r="H13" s="325"/>
-      <c r="I13" s="325"/>
-    </row>
-    <row r="14" spans="1:15" s="322" customFormat="1" ht="15" customHeight="1">
-      <c r="B14" s="325"/>
-      <c r="C14" s="325"/>
-      <c r="D14" s="325"/>
-      <c r="E14" s="325"/>
-      <c r="F14" s="325"/>
-      <c r="G14" s="325"/>
-      <c r="H14" s="325"/>
-      <c r="I14" s="325"/>
-      <c r="J14" s="325"/>
+    <row r="12" spans="1:15" s="280" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="281"/>
+      <c r="C12" s="281"/>
+      <c r="D12" s="281"/>
+      <c r="E12" s="281"/>
+      <c r="F12" s="281"/>
+      <c r="G12" s="281"/>
+      <c r="H12" s="281"/>
+      <c r="I12" s="281"/>
+      <c r="L12" s="282"/>
+    </row>
+    <row r="13" spans="1:15" s="280" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="283"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
+      <c r="H13" s="283"/>
+      <c r="I13" s="283"/>
+    </row>
+    <row r="14" spans="1:15" s="280" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="283"/>
+      <c r="C14" s="283"/>
+      <c r="D14" s="283"/>
+      <c r="E14" s="283"/>
+      <c r="F14" s="283"/>
+      <c r="G14" s="283"/>
+      <c r="H14" s="283"/>
+      <c r="I14" s="283"/>
+      <c r="J14" s="283"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1"/>
     <row r="16" spans="1:15" s="1" customFormat="1" ht="15">
@@ -4766,12 +4785,12 @@
       <c r="A38" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="363" t="s">
+      <c r="B38" s="370" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="364"/>
-      <c r="D38" s="364"/>
-      <c r="E38" s="365"/>
+      <c r="C38" s="371"/>
+      <c r="D38" s="371"/>
+      <c r="E38" s="372"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1">
       <c r="A39" s="46" t="s">
@@ -4828,12 +4847,12 @@
       <c r="A42" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="363" t="s">
+      <c r="B42" s="370" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="364"/>
-      <c r="D42" s="364"/>
-      <c r="E42" s="365"/>
+      <c r="C42" s="371"/>
+      <c r="D42" s="371"/>
+      <c r="E42" s="372"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1">
       <c r="A43" s="46" t="s">
@@ -4890,12 +4909,12 @@
       <c r="A46" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="363" t="s">
+      <c r="B46" s="370" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="364"/>
-      <c r="D46" s="364"/>
-      <c r="E46" s="365"/>
+      <c r="C46" s="371"/>
+      <c r="D46" s="371"/>
+      <c r="E46" s="372"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1">
       <c r="A47" s="46" t="s">
@@ -4952,12 +4971,12 @@
       <c r="A50" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="363" t="s">
+      <c r="B50" s="370" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="364"/>
-      <c r="D50" s="364"/>
-      <c r="E50" s="365"/>
+      <c r="C50" s="371"/>
+      <c r="D50" s="371"/>
+      <c r="E50" s="372"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1">
       <c r="A51" s="46" t="s">
@@ -5030,452 +5049,481 @@
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G10"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="37.5" customHeight="1"/>
   <cols>
-    <col min="1" max="9" width="16.140625" style="3"/>
-    <col min="10" max="10" width="23.5703125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="16.140625" style="3"/>
+    <col min="1" max="4" width="16.140625" style="3"/>
+    <col min="5" max="5" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="16.140625" style="3"/>
+    <col min="10" max="10" width="23.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="16.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A1" s="257" t="s">
+    <row r="1" spans="1:23" s="6" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A1" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="396" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="397"/>
-      <c r="I1" s="397"/>
-      <c r="K1" s="262"/>
-      <c r="L1" s="262"/>
-      <c r="M1" s="262"/>
-      <c r="N1" s="271"/>
-      <c r="O1" s="271"/>
-      <c r="P1" s="271"/>
-    </row>
-    <row r="2" spans="1:22" ht="37.5" customHeight="1">
+      <c r="B1" s="403" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="326"/>
+      <c r="N1" s="326"/>
+      <c r="O1" s="326"/>
+      <c r="P1" s="306"/>
+      <c r="Q1" s="306"/>
+      <c r="R1" s="306"/>
+      <c r="S1" s="306"/>
+      <c r="T1" s="306"/>
+      <c r="U1" s="306"/>
+      <c r="V1" s="306"/>
+      <c r="W1" s="306"/>
+    </row>
+    <row r="2" spans="1:23" ht="37.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="398"/>
-      <c r="D2" s="398"/>
-      <c r="E2" s="398"/>
-      <c r="F2" s="398" t="s">
+      <c r="B2" s="405" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="405"/>
+      <c r="D2" s="405"/>
+      <c r="E2" s="405"/>
+      <c r="F2" s="405" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="398"/>
-      <c r="H2" s="398"/>
-      <c r="I2" s="398"/>
-      <c r="K2" s="271"/>
-      <c r="L2" s="271"/>
-      <c r="M2" s="271"/>
-      <c r="N2" s="272"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="270"/>
-    </row>
-    <row r="3" spans="1:22" ht="37.5" customHeight="1">
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="K2" s="304"/>
+      <c r="L2" s="305"/>
+      <c r="M2" s="305"/>
+      <c r="N2" s="305"/>
+      <c r="O2" s="305"/>
+      <c r="P2" s="305"/>
+      <c r="Q2" s="305"/>
+      <c r="R2" s="305"/>
+      <c r="S2" s="305"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="304"/>
+    </row>
+    <row r="3" spans="1:23" ht="37.5" customHeight="1">
       <c r="A3" s="219" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="259" t="s">
+      <c r="B3" s="257" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="259" t="s">
+      <c r="C3" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="259" t="s">
+      <c r="D3" s="257" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="259" t="s">
+      <c r="E3" s="257" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="259" t="s">
+      <c r="F3" s="257" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="259" t="s">
+      <c r="G3" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="259" t="s">
+      <c r="H3" s="257" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="259" t="s">
+      <c r="I3" s="257" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="293"/>
-      <c r="L3" s="270"/>
-      <c r="M3" s="270"/>
-      <c r="N3" s="270"/>
-      <c r="O3" s="270"/>
-      <c r="P3" s="270"/>
-      <c r="Q3" s="270"/>
-      <c r="R3" s="270"/>
-      <c r="S3" s="270"/>
-      <c r="T3" s="270"/>
-      <c r="U3" s="270"/>
-      <c r="V3" s="270"/>
-    </row>
-    <row r="4" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A4" s="259" t="s">
+      <c r="K3" s="305"/>
+      <c r="L3" s="327"/>
+      <c r="M3" s="327"/>
+      <c r="N3" s="327"/>
+      <c r="O3" s="327"/>
+      <c r="P3" s="327"/>
+      <c r="Q3" s="327"/>
+      <c r="R3" s="327"/>
+      <c r="S3" s="327"/>
+      <c r="T3" s="327"/>
+      <c r="U3" s="305"/>
+      <c r="V3" s="305"/>
+      <c r="W3" s="304"/>
+    </row>
+    <row r="4" spans="1:23" ht="37.5" customHeight="1">
+      <c r="A4" s="257" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
         <v>0</v>
       </c>
       <c r="J4" s="8">
         <f>SUM(B4:I4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="270"/>
-      <c r="L4" s="352"/>
-      <c r="M4" s="352"/>
-      <c r="N4" s="352"/>
-      <c r="O4" s="352"/>
-      <c r="P4" s="352"/>
-      <c r="Q4" s="352"/>
-      <c r="R4" s="352"/>
-      <c r="S4" s="352"/>
-      <c r="T4" s="352"/>
-      <c r="U4" s="270"/>
-      <c r="V4" s="270"/>
-    </row>
-    <row r="5" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A5" s="259" t="s">
+      <c r="K4" s="305"/>
+      <c r="L4" s="328"/>
+      <c r="M4" s="328"/>
+      <c r="N4" s="328"/>
+      <c r="O4" s="328"/>
+      <c r="P4" s="328"/>
+      <c r="Q4" s="328"/>
+      <c r="R4" s="328"/>
+      <c r="S4" s="328"/>
+      <c r="T4" s="328"/>
+      <c r="U4" s="305"/>
+      <c r="V4" s="305"/>
+      <c r="W4" s="304"/>
+    </row>
+    <row r="5" spans="1:23" ht="37.5" customHeight="1">
+      <c r="A5" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="362">
-        <v>0</v>
-      </c>
-      <c r="C5" s="362">
-        <v>0</v>
-      </c>
-      <c r="D5" s="362">
-        <v>0</v>
-      </c>
-      <c r="E5" s="362">
-        <v>0</v>
-      </c>
-      <c r="F5" s="362">
-        <v>0</v>
-      </c>
-      <c r="G5" s="362">
-        <v>0</v>
-      </c>
-      <c r="H5" s="362">
-        <v>0</v>
-      </c>
-      <c r="I5" s="362">
+      <c r="B5" s="237">
+        <v>0</v>
+      </c>
+      <c r="C5" s="237">
+        <v>0</v>
+      </c>
+      <c r="D5" s="237">
+        <v>0</v>
+      </c>
+      <c r="E5" s="237">
+        <v>0</v>
+      </c>
+      <c r="F5" s="237">
+        <v>0</v>
+      </c>
+      <c r="G5" s="237">
+        <v>0</v>
+      </c>
+      <c r="H5" s="237">
+        <v>0</v>
+      </c>
+      <c r="I5" s="237">
         <v>0</v>
       </c>
       <c r="J5" s="9">
         <f>SUM(B5:I5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="270"/>
-      <c r="L5" s="353"/>
-      <c r="M5" s="354"/>
-      <c r="N5" s="354"/>
-      <c r="O5" s="354"/>
-      <c r="P5" s="354"/>
-      <c r="Q5" s="354"/>
-      <c r="R5" s="354"/>
-      <c r="S5" s="354"/>
-      <c r="T5" s="354"/>
-      <c r="U5" s="270"/>
-      <c r="V5" s="270"/>
-    </row>
-    <row r="6" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A6" s="259" t="s">
+      <c r="K5" s="305"/>
+      <c r="L5" s="329"/>
+      <c r="M5" s="330"/>
+      <c r="N5" s="330"/>
+      <c r="O5" s="330"/>
+      <c r="P5" s="330"/>
+      <c r="Q5" s="330"/>
+      <c r="R5" s="330"/>
+      <c r="S5" s="330"/>
+      <c r="T5" s="330"/>
+      <c r="U5" s="305"/>
+      <c r="V5" s="305"/>
+      <c r="W5" s="304"/>
+    </row>
+    <row r="6" spans="1:23" ht="37.5" customHeight="1">
+      <c r="A6" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="362">
-        <v>0</v>
-      </c>
-      <c r="C6" s="362">
-        <v>0</v>
-      </c>
-      <c r="D6" s="362">
-        <v>0</v>
-      </c>
-      <c r="E6" s="362">
-        <v>0</v>
-      </c>
-      <c r="F6" s="362">
-        <v>0</v>
-      </c>
-      <c r="G6" s="362">
-        <v>0</v>
-      </c>
-      <c r="H6" s="362">
-        <v>0</v>
-      </c>
-      <c r="I6" s="362">
+      <c r="B6" s="237">
+        <v>0</v>
+      </c>
+      <c r="C6" s="237">
+        <v>0</v>
+      </c>
+      <c r="D6" s="237">
+        <v>0</v>
+      </c>
+      <c r="E6" s="237">
+        <v>0</v>
+      </c>
+      <c r="F6" s="237">
+        <v>0</v>
+      </c>
+      <c r="G6" s="237">
+        <v>0</v>
+      </c>
+      <c r="H6" s="237">
+        <v>0</v>
+      </c>
+      <c r="I6" s="237">
         <v>0</v>
       </c>
       <c r="J6" s="9" t="e">
         <f>J5/12/J4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="270"/>
-      <c r="L6" s="353"/>
-      <c r="M6" s="354"/>
-      <c r="N6" s="354"/>
-      <c r="O6" s="354"/>
-      <c r="P6" s="354"/>
-      <c r="Q6" s="354"/>
-      <c r="R6" s="354"/>
-      <c r="S6" s="354"/>
-      <c r="T6" s="354"/>
-      <c r="U6" s="270"/>
-      <c r="V6" s="270"/>
-    </row>
-    <row r="7" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A7" s="399" t="s">
+      <c r="K6" s="305"/>
+      <c r="L6" s="329"/>
+      <c r="M6" s="330"/>
+      <c r="N6" s="330"/>
+      <c r="O6" s="330"/>
+      <c r="P6" s="330"/>
+      <c r="Q6" s="330"/>
+      <c r="R6" s="330"/>
+      <c r="S6" s="330"/>
+      <c r="T6" s="330"/>
+      <c r="U6" s="305"/>
+      <c r="V6" s="305"/>
+      <c r="W6" s="304"/>
+    </row>
+    <row r="7" spans="1:23" ht="37.5" customHeight="1">
+      <c r="A7" s="406" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="400"/>
-      <c r="C7" s="400"/>
-      <c r="D7" s="400"/>
-      <c r="E7" s="400"/>
-      <c r="F7" s="400"/>
-      <c r="G7" s="400"/>
-      <c r="H7" s="400"/>
-      <c r="I7" s="401"/>
+      <c r="B7" s="407"/>
+      <c r="C7" s="407"/>
+      <c r="D7" s="407"/>
+      <c r="E7" s="407"/>
+      <c r="F7" s="407"/>
+      <c r="G7" s="407"/>
+      <c r="H7" s="407"/>
+      <c r="I7" s="408"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="270"/>
-      <c r="L7" s="270"/>
-      <c r="M7" s="270"/>
-      <c r="N7" s="295"/>
-      <c r="O7" s="295"/>
-      <c r="P7" s="270"/>
-      <c r="Q7" s="270"/>
-      <c r="R7" s="270"/>
-      <c r="S7" s="270"/>
-      <c r="T7" s="270"/>
-      <c r="U7" s="270"/>
-      <c r="V7" s="270"/>
-    </row>
-    <row r="8" spans="1:22" ht="37.5" customHeight="1">
+      <c r="K7" s="305"/>
+      <c r="L7" s="331"/>
+      <c r="M7" s="331"/>
+      <c r="N7" s="331"/>
+      <c r="O7" s="331"/>
+      <c r="P7" s="331"/>
+      <c r="Q7" s="331"/>
+      <c r="R7" s="331"/>
+      <c r="S7" s="331"/>
+      <c r="T7" s="331"/>
+      <c r="U7" s="305"/>
+      <c r="V7" s="305"/>
+      <c r="W7" s="304"/>
+    </row>
+    <row r="8" spans="1:23" ht="37.5" customHeight="1">
       <c r="A8" s="214" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
         <v>0</v>
       </c>
       <c r="J8" s="8">
         <f>SUM(B8:I8)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="270"/>
-      <c r="L8" s="314"/>
-      <c r="M8" s="314"/>
-      <c r="N8" s="314"/>
-      <c r="O8" s="314"/>
-      <c r="P8" s="314"/>
-      <c r="Q8" s="314"/>
-      <c r="R8" s="314"/>
-      <c r="S8" s="314"/>
-      <c r="T8" s="314"/>
-      <c r="U8" s="270"/>
-      <c r="V8" s="270"/>
-    </row>
-    <row r="9" spans="1:22" ht="37.5" customHeight="1">
+      <c r="K8" s="305"/>
+      <c r="L8" s="332"/>
+      <c r="M8" s="333"/>
+      <c r="N8" s="333"/>
+      <c r="O8" s="333"/>
+      <c r="P8" s="333"/>
+      <c r="Q8" s="333"/>
+      <c r="R8" s="333"/>
+      <c r="S8" s="333"/>
+      <c r="T8" s="333"/>
+      <c r="U8" s="305"/>
+      <c r="V8" s="305"/>
+      <c r="W8" s="304"/>
+    </row>
+    <row r="9" spans="1:23" ht="37.5" customHeight="1">
       <c r="A9" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="362">
-        <v>0</v>
-      </c>
-      <c r="C9" s="362">
-        <v>0</v>
-      </c>
-      <c r="D9" s="362">
-        <v>0</v>
-      </c>
-      <c r="E9" s="362">
-        <v>0</v>
-      </c>
-      <c r="F9" s="362">
-        <v>0</v>
-      </c>
-      <c r="G9" s="362">
-        <v>0</v>
-      </c>
-      <c r="H9" s="362">
-        <v>0</v>
-      </c>
-      <c r="I9" s="362">
+      <c r="B9" s="237">
+        <v>0</v>
+      </c>
+      <c r="C9" s="237">
+        <v>0</v>
+      </c>
+      <c r="D9" s="237">
+        <v>0</v>
+      </c>
+      <c r="E9" s="237">
+        <v>0</v>
+      </c>
+      <c r="F9" s="237">
+        <v>0</v>
+      </c>
+      <c r="G9" s="237">
+        <v>0</v>
+      </c>
+      <c r="H9" s="237">
+        <v>0</v>
+      </c>
+      <c r="I9" s="237">
         <v>0</v>
       </c>
       <c r="J9" s="9">
         <f>SUM(B9:I9)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="270"/>
-      <c r="L9" s="315"/>
-      <c r="M9" s="316"/>
-      <c r="N9" s="316"/>
-      <c r="O9" s="316"/>
-      <c r="P9" s="316"/>
-      <c r="Q9" s="316"/>
-      <c r="R9" s="316"/>
-      <c r="S9" s="316"/>
-      <c r="T9" s="316"/>
-      <c r="U9" s="270"/>
-      <c r="V9" s="270"/>
-    </row>
-    <row r="10" spans="1:22" ht="37.5" customHeight="1">
+      <c r="K9" s="305"/>
+      <c r="L9" s="332"/>
+      <c r="M9" s="333"/>
+      <c r="N9" s="333"/>
+      <c r="O9" s="333"/>
+      <c r="P9" s="333"/>
+      <c r="Q9" s="333"/>
+      <c r="R9" s="333"/>
+      <c r="S9" s="333"/>
+      <c r="T9" s="333"/>
+      <c r="U9" s="305"/>
+      <c r="V9" s="305"/>
+      <c r="W9" s="304"/>
+    </row>
+    <row r="10" spans="1:23" ht="37.5" customHeight="1">
       <c r="A10" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="362">
-        <v>0</v>
-      </c>
-      <c r="C10" s="362">
-        <v>0</v>
-      </c>
-      <c r="D10" s="362">
-        <v>0</v>
-      </c>
-      <c r="E10" s="362">
-        <v>0</v>
-      </c>
-      <c r="F10" s="362">
-        <v>0</v>
-      </c>
-      <c r="G10" s="362">
-        <v>0</v>
-      </c>
-      <c r="H10" s="362">
-        <v>0</v>
-      </c>
-      <c r="I10" s="362">
+      <c r="B10" s="237">
+        <v>0</v>
+      </c>
+      <c r="C10" s="237">
+        <v>0</v>
+      </c>
+      <c r="D10" s="237">
+        <v>0</v>
+      </c>
+      <c r="E10" s="237">
+        <v>0</v>
+      </c>
+      <c r="F10" s="237">
+        <v>0</v>
+      </c>
+      <c r="G10" s="237">
+        <v>0</v>
+      </c>
+      <c r="H10" s="237">
+        <v>0</v>
+      </c>
+      <c r="I10" s="237">
         <v>0</v>
       </c>
       <c r="J10" s="9" t="e">
         <f>J9/12/J8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="270"/>
-      <c r="L10" s="315"/>
-      <c r="M10" s="316"/>
-      <c r="N10" s="316"/>
-      <c r="O10" s="316"/>
-      <c r="P10" s="316"/>
-      <c r="Q10" s="316"/>
-      <c r="R10" s="316"/>
-      <c r="S10" s="316"/>
-      <c r="T10" s="316"/>
-      <c r="U10" s="270"/>
-      <c r="V10" s="270"/>
-    </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1">
-      <c r="B11" s="283"/>
-      <c r="C11" s="283"/>
-      <c r="D11" s="283"/>
-      <c r="E11" s="283"/>
-      <c r="F11" s="283"/>
-      <c r="G11" s="283"/>
-      <c r="H11" s="283"/>
-      <c r="I11" s="283"/>
-      <c r="K11" s="270"/>
-      <c r="L11" s="270"/>
-      <c r="M11" s="335"/>
-      <c r="N11" s="335"/>
-      <c r="O11" s="335"/>
-      <c r="P11" s="335"/>
-      <c r="Q11" s="335"/>
-      <c r="R11" s="335"/>
-      <c r="S11" s="335"/>
-      <c r="T11" s="335"/>
-      <c r="U11" s="270"/>
-      <c r="V11" s="270"/>
-    </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1">
-      <c r="B12" s="283"/>
-      <c r="C12" s="283"/>
-      <c r="D12" s="283"/>
-      <c r="E12" s="283"/>
-      <c r="F12" s="283"/>
-      <c r="G12" s="283"/>
-      <c r="H12" s="283"/>
-      <c r="I12" s="283"/>
-      <c r="M12" s="335"/>
-      <c r="N12" s="335"/>
-      <c r="O12" s="335"/>
-      <c r="P12" s="335"/>
-      <c r="Q12" s="335"/>
-      <c r="R12" s="335"/>
-      <c r="S12" s="335"/>
-      <c r="T12" s="335"/>
-    </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1">
-      <c r="B13" s="283"/>
-      <c r="C13" s="283"/>
-      <c r="D13" s="283"/>
-      <c r="E13" s="283"/>
-      <c r="F13" s="283"/>
-      <c r="G13" s="283"/>
-      <c r="H13" s="283"/>
-      <c r="I13" s="283"/>
-    </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1"/>
-    <row r="15" spans="1:22" ht="15">
+      <c r="K10" s="305"/>
+      <c r="L10" s="305"/>
+      <c r="M10" s="334"/>
+      <c r="N10" s="334"/>
+      <c r="O10" s="334"/>
+      <c r="P10" s="334"/>
+      <c r="Q10" s="334"/>
+      <c r="R10" s="334"/>
+      <c r="S10" s="334"/>
+      <c r="T10" s="334"/>
+      <c r="U10" s="305"/>
+      <c r="V10" s="305"/>
+      <c r="W10" s="304"/>
+    </row>
+    <row r="11" spans="1:23" ht="15" customHeight="1">
+      <c r="B11" s="266"/>
+      <c r="C11" s="266"/>
+      <c r="D11" s="266"/>
+      <c r="E11" s="266"/>
+      <c r="F11" s="266"/>
+      <c r="G11" s="266"/>
+      <c r="H11" s="266"/>
+      <c r="I11" s="266"/>
+      <c r="K11" s="305"/>
+      <c r="L11" s="305"/>
+      <c r="M11" s="334"/>
+      <c r="N11" s="334"/>
+      <c r="O11" s="334"/>
+      <c r="P11" s="334"/>
+      <c r="Q11" s="334"/>
+      <c r="R11" s="334"/>
+      <c r="S11" s="334"/>
+      <c r="T11" s="334"/>
+      <c r="U11" s="305"/>
+      <c r="V11" s="305"/>
+      <c r="W11" s="304"/>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1">
+      <c r="B12" s="266"/>
+      <c r="C12" s="266"/>
+      <c r="D12" s="266"/>
+      <c r="E12" s="266"/>
+      <c r="F12" s="266"/>
+      <c r="G12" s="266"/>
+      <c r="H12" s="266"/>
+      <c r="I12" s="266"/>
+      <c r="K12" s="304"/>
+      <c r="L12" s="304"/>
+      <c r="M12" s="304"/>
+      <c r="N12" s="304"/>
+      <c r="O12" s="304"/>
+      <c r="P12" s="304"/>
+      <c r="Q12" s="304"/>
+      <c r="R12" s="304"/>
+      <c r="S12" s="304"/>
+      <c r="T12" s="304"/>
+      <c r="U12" s="304"/>
+      <c r="V12" s="304"/>
+      <c r="W12" s="304"/>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1">
+      <c r="B13" s="266"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="266"/>
+      <c r="E13" s="266"/>
+      <c r="F13" s="266"/>
+      <c r="G13" s="266"/>
+      <c r="H13" s="266"/>
+      <c r="I13" s="266"/>
+    </row>
+    <row r="14" spans="1:23" ht="15" customHeight="1"/>
+    <row r="15" spans="1:23" ht="15">
       <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
@@ -5489,7 +5537,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:22" ht="15">
+    <row r="16" spans="1:23" ht="15">
       <c r="A16" s="19" t="s">
         <v>18</v>
       </c>
@@ -5551,15 +5599,15 @@
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="27"/>
-      <c r="B18" s="269"/>
-      <c r="C18" s="269"/>
-      <c r="D18" s="269"/>
-      <c r="E18" s="269"/>
-      <c r="F18" s="269"/>
-      <c r="G18" s="269"/>
-      <c r="H18" s="269"/>
-      <c r="I18" s="269"/>
-      <c r="J18" s="269"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="28" t="s">
@@ -5637,46 +5685,46 @@
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="27"/>
-      <c r="B22" s="269"/>
-      <c r="C22" s="269"/>
-      <c r="D22" s="269"/>
-      <c r="E22" s="269"/>
-      <c r="F22" s="269"/>
-      <c r="G22" s="269"/>
-      <c r="H22" s="269"/>
-      <c r="I22" s="269"/>
-      <c r="J22" s="269"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="269"/>
-      <c r="C23" s="269"/>
-      <c r="D23" s="269"/>
-      <c r="E23" s="269"/>
-      <c r="F23" s="269"/>
-      <c r="G23" s="269"/>
-      <c r="H23" s="269"/>
-      <c r="I23" s="269"/>
-      <c r="J23" s="269"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
     </row>
     <row r="24" spans="1:10" ht="15"/>
     <row r="25" spans="1:10" ht="21">
       <c r="A25" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="269"/>
-      <c r="C25" s="269"/>
-      <c r="D25" s="269"/>
-      <c r="E25" s="269"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A26" s="269"/>
-      <c r="B26" s="269"/>
-      <c r="C26" s="269"/>
-      <c r="D26" s="269"/>
-      <c r="E26" s="269"/>
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="34" t="s">
@@ -5798,22 +5846,871 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15">
-      <c r="A34" s="402" t="s">
+      <c r="A34" s="409" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="403"/>
-      <c r="C34" s="403"/>
-      <c r="D34" s="403"/>
-      <c r="E34" s="404"/>
+      <c r="B34" s="410"/>
+      <c r="C34" s="410"/>
+      <c r="D34" s="410"/>
+      <c r="E34" s="411"/>
     </row>
     <row r="35" spans="1:5" ht="15">
-      <c r="A35" s="393" t="s">
+      <c r="A35" s="400" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="394"/>
-      <c r="C35" s="394"/>
-      <c r="D35" s="394"/>
-      <c r="E35" s="395"/>
+      <c r="B35" s="401"/>
+      <c r="C35" s="401"/>
+      <c r="D35" s="401"/>
+      <c r="E35" s="402"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A36" s="74"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A34:E34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFF0066"/>
+  </sheetPr>
+  <dimension ref="A1:W36"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="37.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="9" width="16.140625" style="3"/>
+    <col min="10" max="10" width="23.5703125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="16.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="6" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A1" s="255" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="403" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="404"/>
+      <c r="D1" s="404"/>
+      <c r="E1" s="404"/>
+      <c r="F1" s="404"/>
+      <c r="G1" s="404"/>
+      <c r="H1" s="404"/>
+      <c r="I1" s="404"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="335"/>
+      <c r="O1" s="335"/>
+      <c r="P1" s="335"/>
+      <c r="Q1" s="306"/>
+      <c r="R1" s="306"/>
+      <c r="S1" s="306"/>
+      <c r="T1" s="306"/>
+      <c r="U1" s="306"/>
+      <c r="V1" s="306"/>
+      <c r="W1" s="306"/>
+    </row>
+    <row r="2" spans="1:23" ht="37.5" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="405" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="405"/>
+      <c r="D2" s="405"/>
+      <c r="E2" s="405"/>
+      <c r="F2" s="405" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
+      <c r="N2" s="336"/>
+      <c r="O2" s="305"/>
+      <c r="P2" s="305"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="304"/>
+      <c r="S2" s="304"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="304"/>
+    </row>
+    <row r="3" spans="1:23" ht="37.5" customHeight="1">
+      <c r="A3" s="219" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="257" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="257" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="257" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="257" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="257" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="257" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="257" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="257" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="337"/>
+      <c r="L3" s="305"/>
+      <c r="M3" s="305"/>
+      <c r="N3" s="305"/>
+      <c r="O3" s="305"/>
+      <c r="P3" s="305"/>
+      <c r="Q3" s="305"/>
+      <c r="R3" s="305"/>
+      <c r="S3" s="305"/>
+      <c r="T3" s="305"/>
+      <c r="U3" s="305"/>
+      <c r="V3" s="305"/>
+      <c r="W3" s="304"/>
+    </row>
+    <row r="4" spans="1:23" ht="37.5" customHeight="1">
+      <c r="A4" s="257" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <f>SUM(B4:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="305"/>
+      <c r="L4" s="338"/>
+      <c r="M4" s="338"/>
+      <c r="N4" s="338"/>
+      <c r="O4" s="338"/>
+      <c r="P4" s="338"/>
+      <c r="Q4" s="338"/>
+      <c r="R4" s="338"/>
+      <c r="S4" s="338"/>
+      <c r="T4" s="338"/>
+      <c r="U4" s="305"/>
+      <c r="V4" s="305"/>
+      <c r="W4" s="304"/>
+    </row>
+    <row r="5" spans="1:23" ht="37.5" customHeight="1">
+      <c r="A5" s="257" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="286">
+        <v>0</v>
+      </c>
+      <c r="C5" s="286">
+        <v>0</v>
+      </c>
+      <c r="D5" s="286">
+        <v>0</v>
+      </c>
+      <c r="E5" s="286">
+        <v>0</v>
+      </c>
+      <c r="F5" s="286">
+        <v>0</v>
+      </c>
+      <c r="G5" s="286">
+        <v>0</v>
+      </c>
+      <c r="H5" s="286">
+        <v>0</v>
+      </c>
+      <c r="I5" s="286">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <f>SUM(B5:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="305"/>
+      <c r="L5" s="339"/>
+      <c r="M5" s="340"/>
+      <c r="N5" s="340"/>
+      <c r="O5" s="340"/>
+      <c r="P5" s="340"/>
+      <c r="Q5" s="340"/>
+      <c r="R5" s="340"/>
+      <c r="S5" s="340"/>
+      <c r="T5" s="340"/>
+      <c r="U5" s="305"/>
+      <c r="V5" s="305"/>
+      <c r="W5" s="304"/>
+    </row>
+    <row r="6" spans="1:23" ht="37.5" customHeight="1">
+      <c r="A6" s="257" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="286">
+        <v>0</v>
+      </c>
+      <c r="C6" s="286">
+        <v>0</v>
+      </c>
+      <c r="D6" s="286">
+        <v>0</v>
+      </c>
+      <c r="E6" s="286">
+        <v>0</v>
+      </c>
+      <c r="F6" s="286">
+        <v>0</v>
+      </c>
+      <c r="G6" s="286">
+        <v>0</v>
+      </c>
+      <c r="H6" s="286">
+        <v>0</v>
+      </c>
+      <c r="I6" s="286">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="e">
+        <f>J5/12/J4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="305"/>
+      <c r="L6" s="339"/>
+      <c r="M6" s="340"/>
+      <c r="N6" s="340"/>
+      <c r="O6" s="340"/>
+      <c r="P6" s="340"/>
+      <c r="Q6" s="340"/>
+      <c r="R6" s="340"/>
+      <c r="S6" s="340"/>
+      <c r="T6" s="340"/>
+      <c r="U6" s="305"/>
+      <c r="V6" s="305"/>
+      <c r="W6" s="304"/>
+    </row>
+    <row r="7" spans="1:23" ht="37.5" customHeight="1">
+      <c r="A7" s="406" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="407"/>
+      <c r="C7" s="407"/>
+      <c r="D7" s="407"/>
+      <c r="E7" s="407"/>
+      <c r="F7" s="407"/>
+      <c r="G7" s="407"/>
+      <c r="H7" s="407"/>
+      <c r="I7" s="408"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="305"/>
+      <c r="L7" s="305"/>
+      <c r="M7" s="305"/>
+      <c r="N7" s="341"/>
+      <c r="O7" s="341"/>
+      <c r="P7" s="305"/>
+      <c r="Q7" s="305"/>
+      <c r="R7" s="305"/>
+      <c r="S7" s="305"/>
+      <c r="T7" s="305"/>
+      <c r="U7" s="305"/>
+      <c r="V7" s="305"/>
+      <c r="W7" s="304"/>
+    </row>
+    <row r="8" spans="1:23" ht="37.5" customHeight="1">
+      <c r="A8" s="214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <f>SUM(B8:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="305"/>
+      <c r="L8" s="342"/>
+      <c r="M8" s="342"/>
+      <c r="N8" s="342"/>
+      <c r="O8" s="342"/>
+      <c r="P8" s="342"/>
+      <c r="Q8" s="342"/>
+      <c r="R8" s="342"/>
+      <c r="S8" s="342"/>
+      <c r="T8" s="342"/>
+      <c r="U8" s="305"/>
+      <c r="V8" s="305"/>
+      <c r="W8" s="304"/>
+    </row>
+    <row r="9" spans="1:23" ht="37.5" customHeight="1">
+      <c r="A9" s="214" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="286">
+        <v>0</v>
+      </c>
+      <c r="C9" s="286">
+        <v>0</v>
+      </c>
+      <c r="D9" s="286">
+        <v>0</v>
+      </c>
+      <c r="E9" s="286">
+        <v>0</v>
+      </c>
+      <c r="F9" s="286">
+        <v>0</v>
+      </c>
+      <c r="G9" s="286">
+        <v>0</v>
+      </c>
+      <c r="H9" s="286">
+        <v>0</v>
+      </c>
+      <c r="I9" s="286">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <f>SUM(B9:I9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="305"/>
+      <c r="L9" s="343"/>
+      <c r="M9" s="344"/>
+      <c r="N9" s="344"/>
+      <c r="O9" s="344"/>
+      <c r="P9" s="344"/>
+      <c r="Q9" s="344"/>
+      <c r="R9" s="344"/>
+      <c r="S9" s="344"/>
+      <c r="T9" s="344"/>
+      <c r="U9" s="305"/>
+      <c r="V9" s="305"/>
+      <c r="W9" s="304"/>
+    </row>
+    <row r="10" spans="1:23" ht="37.5" customHeight="1">
+      <c r="A10" s="214" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="286">
+        <v>0</v>
+      </c>
+      <c r="C10" s="286">
+        <v>0</v>
+      </c>
+      <c r="D10" s="286">
+        <v>0</v>
+      </c>
+      <c r="E10" s="286">
+        <v>0</v>
+      </c>
+      <c r="F10" s="286">
+        <v>0</v>
+      </c>
+      <c r="G10" s="286">
+        <v>0</v>
+      </c>
+      <c r="H10" s="286">
+        <v>0</v>
+      </c>
+      <c r="I10" s="286">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="e">
+        <f>J9/12/J8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="305"/>
+      <c r="L10" s="343"/>
+      <c r="M10" s="344"/>
+      <c r="N10" s="344"/>
+      <c r="O10" s="344"/>
+      <c r="P10" s="344"/>
+      <c r="Q10" s="344"/>
+      <c r="R10" s="344"/>
+      <c r="S10" s="344"/>
+      <c r="T10" s="344"/>
+      <c r="U10" s="305"/>
+      <c r="V10" s="305"/>
+      <c r="W10" s="304"/>
+    </row>
+    <row r="11" spans="1:23" ht="15" customHeight="1">
+      <c r="B11" s="266"/>
+      <c r="C11" s="266"/>
+      <c r="D11" s="266"/>
+      <c r="E11" s="266"/>
+      <c r="F11" s="266"/>
+      <c r="G11" s="266"/>
+      <c r="H11" s="266"/>
+      <c r="I11" s="266"/>
+      <c r="K11" s="305"/>
+      <c r="L11" s="305"/>
+      <c r="M11" s="334"/>
+      <c r="N11" s="334"/>
+      <c r="O11" s="334"/>
+      <c r="P11" s="334"/>
+      <c r="Q11" s="334"/>
+      <c r="R11" s="334"/>
+      <c r="S11" s="334"/>
+      <c r="T11" s="334"/>
+      <c r="U11" s="305"/>
+      <c r="V11" s="305"/>
+      <c r="W11" s="304"/>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1">
+      <c r="B12" s="266"/>
+      <c r="C12" s="266"/>
+      <c r="D12" s="266"/>
+      <c r="E12" s="266"/>
+      <c r="F12" s="266"/>
+      <c r="G12" s="266"/>
+      <c r="H12" s="266"/>
+      <c r="I12" s="266"/>
+      <c r="K12" s="304"/>
+      <c r="L12" s="304"/>
+      <c r="M12" s="334"/>
+      <c r="N12" s="334"/>
+      <c r="O12" s="334"/>
+      <c r="P12" s="334"/>
+      <c r="Q12" s="334"/>
+      <c r="R12" s="334"/>
+      <c r="S12" s="334"/>
+      <c r="T12" s="334"/>
+      <c r="U12" s="304"/>
+      <c r="V12" s="304"/>
+      <c r="W12" s="304"/>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1">
+      <c r="B13" s="266"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="266"/>
+      <c r="E13" s="266"/>
+      <c r="F13" s="266"/>
+      <c r="G13" s="266"/>
+      <c r="H13" s="266"/>
+      <c r="I13" s="266"/>
+      <c r="K13" s="304"/>
+      <c r="L13" s="304"/>
+      <c r="M13" s="304"/>
+      <c r="N13" s="304"/>
+      <c r="O13" s="304"/>
+      <c r="P13" s="304"/>
+      <c r="Q13" s="304"/>
+      <c r="R13" s="304"/>
+      <c r="S13" s="304"/>
+      <c r="T13" s="304"/>
+      <c r="U13" s="304"/>
+      <c r="V13" s="304"/>
+      <c r="W13" s="304"/>
+    </row>
+    <row r="14" spans="1:23" ht="15" customHeight="1"/>
+    <row r="15" spans="1:23" ht="15">
+      <c r="A15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:23" ht="15">
+      <c r="A16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" ht="15">
+      <c r="A17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" ht="15">
+      <c r="A18" s="27"/>
+      <c r="B18" s="260"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="260"/>
+      <c r="E18" s="260"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="260"/>
+      <c r="H18" s="260"/>
+      <c r="I18" s="260"/>
+      <c r="J18" s="260"/>
+    </row>
+    <row r="19" spans="1:10" ht="15">
+      <c r="A19" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:10" ht="15">
+      <c r="A20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" ht="15">
+      <c r="A21" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" ht="15">
+      <c r="A22" s="27"/>
+      <c r="B22" s="260"/>
+      <c r="C22" s="260"/>
+      <c r="D22" s="260"/>
+      <c r="E22" s="260"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="260"/>
+      <c r="H22" s="260"/>
+      <c r="I22" s="260"/>
+      <c r="J22" s="260"/>
+    </row>
+    <row r="23" spans="1:10" ht="15">
+      <c r="A23" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="260"/>
+      <c r="C23" s="260"/>
+      <c r="D23" s="260"/>
+      <c r="E23" s="260"/>
+      <c r="F23" s="260"/>
+      <c r="G23" s="260"/>
+      <c r="H23" s="260"/>
+      <c r="I23" s="260"/>
+      <c r="J23" s="260"/>
+    </row>
+    <row r="24" spans="1:10" ht="15"/>
+    <row r="25" spans="1:10" ht="21">
+      <c r="A25" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="260"/>
+      <c r="C25" s="260"/>
+      <c r="D25" s="260"/>
+      <c r="E25" s="260"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A26" s="260"/>
+      <c r="B26" s="260"/>
+      <c r="C26" s="260"/>
+      <c r="D26" s="260"/>
+      <c r="E26" s="260"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A27" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="102.75" thickBot="1">
+      <c r="A28" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="39">
+        <v>500000</v>
+      </c>
+      <c r="C28" s="39">
+        <v>1000000</v>
+      </c>
+      <c r="D28" s="39">
+        <v>1500000</v>
+      </c>
+      <c r="E28" s="39">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="102.75" thickBot="1">
+      <c r="A29" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="59">
+        <v>500000</v>
+      </c>
+      <c r="C29" s="59">
+        <v>1000000</v>
+      </c>
+      <c r="D29" s="59">
+        <v>1000000</v>
+      </c>
+      <c r="E29" s="60">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="141" thickBot="1">
+      <c r="A30" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="59">
+        <v>250000</v>
+      </c>
+      <c r="C30" s="59">
+        <v>500000</v>
+      </c>
+      <c r="D30" s="59">
+        <v>500000</v>
+      </c>
+      <c r="E30" s="60">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A31" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="62">
+        <v>50000</v>
+      </c>
+      <c r="C31" s="62">
+        <v>100000</v>
+      </c>
+      <c r="D31" s="62">
+        <v>100000</v>
+      </c>
+      <c r="E31" s="63">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="25.5">
+      <c r="A32" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="65">
+        <v>228</v>
+      </c>
+      <c r="C32" s="66">
+        <v>435</v>
+      </c>
+      <c r="D32" s="67">
+        <v>538</v>
+      </c>
+      <c r="E32" s="68">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A33" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="70">
+        <v>217</v>
+      </c>
+      <c r="C33" s="71">
+        <v>413</v>
+      </c>
+      <c r="D33" s="72">
+        <v>511</v>
+      </c>
+      <c r="E33" s="73">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15">
+      <c r="A34" s="409" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="410"/>
+      <c r="C34" s="410"/>
+      <c r="D34" s="410"/>
+      <c r="E34" s="411"/>
+    </row>
+    <row r="35" spans="1:5" ht="15">
+      <c r="A35" s="400" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="401"/>
+      <c r="C35" s="401"/>
+      <c r="D35" s="401"/>
+      <c r="E35" s="402"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1">
       <c r="A36" s="74"/>
@@ -5836,13 +6733,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="38.25" customHeight="1"/>
   <cols>
@@ -5857,56 +6752,61 @@
       <c r="A1" s="244" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="386" t="s">
+      <c r="B1" s="393" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
-      <c r="F1" s="387"/>
-      <c r="G1" s="387"/>
-      <c r="H1" s="387"/>
-      <c r="I1" s="387"/>
-      <c r="L1" s="262"/>
-      <c r="M1" s="267"/>
-      <c r="N1" s="267"/>
-      <c r="O1" s="267"/>
-      <c r="Q1" s="265"/>
-      <c r="R1" s="265"/>
-      <c r="S1" s="265"/>
-      <c r="T1" s="265"/>
-      <c r="U1" s="265"/>
-      <c r="V1" s="265"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="265"/>
+      <c r="C1" s="394"/>
+      <c r="D1" s="394"/>
+      <c r="E1" s="394"/>
+      <c r="F1" s="394"/>
+      <c r="G1" s="394"/>
+      <c r="H1" s="394"/>
+      <c r="I1" s="394"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="345"/>
+      <c r="N1" s="345"/>
+      <c r="O1" s="345"/>
+      <c r="P1" s="306"/>
+      <c r="Q1" s="258"/>
+      <c r="R1" s="258"/>
+      <c r="S1" s="258"/>
+      <c r="T1" s="258"/>
+      <c r="U1" s="258"/>
+      <c r="V1" s="258"/>
+      <c r="W1" s="290"/>
+      <c r="X1" s="258"/>
     </row>
     <row r="2" spans="1:24" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="366" t="s">
+      <c r="B2" s="373" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366"/>
-      <c r="F2" s="366" t="s">
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373"/>
+      <c r="F2" s="373" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="366"/>
-      <c r="H2" s="366"/>
-      <c r="I2" s="366"/>
-      <c r="L2" s="267"/>
-      <c r="M2" s="278"/>
-      <c r="N2" s="264"/>
-      <c r="O2" s="264"/>
-      <c r="P2" s="298"/>
-      <c r="Q2" s="299"/>
-      <c r="R2" s="299"/>
-      <c r="S2" s="299"/>
-      <c r="T2" s="299"/>
-      <c r="V2" s="266"/>
-      <c r="X2" s="266"/>
+      <c r="G2" s="373"/>
+      <c r="H2" s="373"/>
+      <c r="I2" s="373"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="345"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="294"/>
+      <c r="O2" s="294"/>
+      <c r="P2" s="275"/>
+      <c r="Q2" s="276"/>
+      <c r="R2" s="276"/>
+      <c r="S2" s="276"/>
+      <c r="T2" s="276"/>
+      <c r="U2" s="290"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="290"/>
+      <c r="X2" s="259"/>
     </row>
     <row r="3" spans="1:24" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A3" s="219" t="s">
@@ -5936,19 +6836,20 @@
       <c r="I3" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="264"/>
-      <c r="L3" s="264"/>
-      <c r="M3" s="349"/>
-      <c r="N3" s="349"/>
-      <c r="O3" s="349"/>
-      <c r="P3" s="349"/>
-      <c r="Q3" s="349"/>
-      <c r="R3" s="349"/>
-      <c r="S3" s="349"/>
-      <c r="T3" s="349"/>
-      <c r="U3" s="349"/>
-      <c r="V3" s="277"/>
-      <c r="X3" s="266"/>
+      <c r="K3" s="294"/>
+      <c r="L3" s="294"/>
+      <c r="M3" s="347"/>
+      <c r="N3" s="347"/>
+      <c r="O3" s="347"/>
+      <c r="P3" s="347"/>
+      <c r="Q3" s="347"/>
+      <c r="R3" s="347"/>
+      <c r="S3" s="347"/>
+      <c r="T3" s="347"/>
+      <c r="U3" s="347"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="290"/>
+      <c r="X3" s="259"/>
     </row>
     <row r="4" spans="1:24" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A4" s="245" t="s">
@@ -5982,17 +6883,20 @@
         <f>SUM(B4:I4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="264"/>
-      <c r="L4" s="331"/>
-      <c r="M4" s="350"/>
-      <c r="N4" s="351"/>
-      <c r="O4" s="351"/>
-      <c r="P4" s="351"/>
-      <c r="Q4" s="351"/>
-      <c r="R4" s="351"/>
-      <c r="S4" s="351"/>
-      <c r="T4" s="351"/>
-      <c r="U4" s="351"/>
+      <c r="K4" s="294"/>
+      <c r="L4" s="348"/>
+      <c r="M4" s="349"/>
+      <c r="N4" s="350"/>
+      <c r="O4" s="350"/>
+      <c r="P4" s="350"/>
+      <c r="Q4" s="350"/>
+      <c r="R4" s="350"/>
+      <c r="S4" s="350"/>
+      <c r="T4" s="350"/>
+      <c r="U4" s="350"/>
+      <c r="V4" s="290"/>
+      <c r="W4" s="290"/>
+      <c r="X4" s="290"/>
     </row>
     <row r="5" spans="1:24" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A5" s="245" t="s">
@@ -6026,17 +6930,20 @@
         <f>SUM(B5:I5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="264"/>
-      <c r="L5" s="332"/>
-      <c r="M5" s="350"/>
-      <c r="N5" s="351"/>
-      <c r="O5" s="351"/>
-      <c r="P5" s="351"/>
-      <c r="Q5" s="351"/>
-      <c r="R5" s="351"/>
-      <c r="S5" s="351"/>
-      <c r="T5" s="351"/>
-      <c r="U5" s="351"/>
+      <c r="K5" s="294"/>
+      <c r="L5" s="351"/>
+      <c r="M5" s="349"/>
+      <c r="N5" s="350"/>
+      <c r="O5" s="350"/>
+      <c r="P5" s="350"/>
+      <c r="Q5" s="350"/>
+      <c r="R5" s="350"/>
+      <c r="S5" s="350"/>
+      <c r="T5" s="350"/>
+      <c r="U5" s="350"/>
+      <c r="V5" s="290"/>
+      <c r="W5" s="290"/>
+      <c r="X5" s="290"/>
     </row>
     <row r="6" spans="1:24" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A6" s="245" t="s">
@@ -6070,46 +6977,48 @@
         <f>IF(J5=0,0,J5/12/J4)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="264"/>
-      <c r="L6" s="332"/>
-      <c r="M6" s="333"/>
-      <c r="N6" s="333"/>
-      <c r="O6" s="333"/>
-      <c r="P6" s="333"/>
-      <c r="Q6" s="333"/>
-      <c r="R6" s="333"/>
-      <c r="S6" s="333"/>
-      <c r="T6" s="333"/>
-      <c r="U6" s="264"/>
-      <c r="V6" s="264"/>
-      <c r="W6" s="264"/>
+      <c r="K6" s="294"/>
+      <c r="L6" s="351"/>
+      <c r="M6" s="352"/>
+      <c r="N6" s="352"/>
+      <c r="O6" s="352"/>
+      <c r="P6" s="352"/>
+      <c r="Q6" s="352"/>
+      <c r="R6" s="352"/>
+      <c r="S6" s="352"/>
+      <c r="T6" s="352"/>
+      <c r="U6" s="294"/>
+      <c r="V6" s="294"/>
+      <c r="W6" s="294"/>
+      <c r="X6" s="290"/>
     </row>
     <row r="7" spans="1:24" s="120" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A7" s="370" t="s">
+      <c r="A7" s="377" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="371"/>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
-      <c r="F7" s="371"/>
-      <c r="G7" s="371"/>
-      <c r="H7" s="371"/>
-      <c r="I7" s="372"/>
+      <c r="B7" s="378"/>
+      <c r="C7" s="378"/>
+      <c r="D7" s="378"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="378"/>
+      <c r="G7" s="378"/>
+      <c r="H7" s="378"/>
+      <c r="I7" s="379"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="264"/>
-      <c r="L7" s="264"/>
-      <c r="M7" s="331"/>
-      <c r="N7" s="331"/>
-      <c r="O7" s="331"/>
-      <c r="P7" s="331"/>
-      <c r="Q7" s="331"/>
-      <c r="R7" s="331"/>
-      <c r="S7" s="331"/>
-      <c r="T7" s="331"/>
-      <c r="U7" s="331"/>
-      <c r="V7" s="264"/>
-      <c r="W7" s="264"/>
+      <c r="K7" s="294"/>
+      <c r="L7" s="294"/>
+      <c r="M7" s="348"/>
+      <c r="N7" s="348"/>
+      <c r="O7" s="348"/>
+      <c r="P7" s="348"/>
+      <c r="Q7" s="348"/>
+      <c r="R7" s="348"/>
+      <c r="S7" s="348"/>
+      <c r="T7" s="348"/>
+      <c r="U7" s="348"/>
+      <c r="V7" s="294"/>
+      <c r="W7" s="294"/>
+      <c r="X7" s="290"/>
     </row>
     <row r="8" spans="1:24" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A8" s="216" t="s">
@@ -6143,19 +7052,20 @@
         <f>SUM(B8:I8)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="264"/>
-      <c r="L8" s="300"/>
-      <c r="M8" s="332"/>
-      <c r="N8" s="333"/>
-      <c r="O8" s="333"/>
-      <c r="P8" s="333"/>
-      <c r="Q8" s="333"/>
-      <c r="R8" s="333"/>
-      <c r="S8" s="333"/>
-      <c r="T8" s="333"/>
-      <c r="U8" s="333"/>
-      <c r="V8" s="264"/>
-      <c r="W8" s="264"/>
+      <c r="K8" s="294"/>
+      <c r="L8" s="353"/>
+      <c r="M8" s="351"/>
+      <c r="N8" s="352"/>
+      <c r="O8" s="352"/>
+      <c r="P8" s="352"/>
+      <c r="Q8" s="352"/>
+      <c r="R8" s="352"/>
+      <c r="S8" s="352"/>
+      <c r="T8" s="352"/>
+      <c r="U8" s="352"/>
+      <c r="V8" s="294"/>
+      <c r="W8" s="294"/>
+      <c r="X8" s="290"/>
     </row>
     <row r="9" spans="1:24" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A9" s="216" t="s">
@@ -6189,19 +7099,20 @@
         <f>SUM(B9:I9)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="264"/>
-      <c r="L9" s="264"/>
-      <c r="M9" s="332"/>
-      <c r="N9" s="333"/>
-      <c r="O9" s="333"/>
-      <c r="P9" s="333"/>
-      <c r="Q9" s="333"/>
-      <c r="R9" s="333"/>
-      <c r="S9" s="333"/>
-      <c r="T9" s="333"/>
-      <c r="U9" s="333"/>
-      <c r="V9" s="264"/>
-      <c r="W9" s="264"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="294"/>
+      <c r="M9" s="351"/>
+      <c r="N9" s="352"/>
+      <c r="O9" s="352"/>
+      <c r="P9" s="352"/>
+      <c r="Q9" s="352"/>
+      <c r="R9" s="352"/>
+      <c r="S9" s="352"/>
+      <c r="T9" s="352"/>
+      <c r="U9" s="352"/>
+      <c r="V9" s="294"/>
+      <c r="W9" s="294"/>
+      <c r="X9" s="290"/>
     </row>
     <row r="10" spans="1:24" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A10" s="216" t="s">
@@ -6235,19 +7146,20 @@
         <f>IF(J9=0,0,J9/12/J8)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="264"/>
-      <c r="L10" s="296"/>
-      <c r="M10" s="297"/>
-      <c r="N10" s="330"/>
-      <c r="O10" s="330"/>
-      <c r="P10" s="330"/>
-      <c r="Q10" s="330"/>
-      <c r="R10" s="330"/>
-      <c r="S10" s="330"/>
-      <c r="T10" s="330"/>
-      <c r="U10" s="330"/>
-      <c r="V10" s="264"/>
-      <c r="W10" s="264"/>
+      <c r="K10" s="294"/>
+      <c r="L10" s="354"/>
+      <c r="M10" s="355"/>
+      <c r="N10" s="356"/>
+      <c r="O10" s="356"/>
+      <c r="P10" s="356"/>
+      <c r="Q10" s="356"/>
+      <c r="R10" s="356"/>
+      <c r="S10" s="356"/>
+      <c r="T10" s="356"/>
+      <c r="U10" s="356"/>
+      <c r="V10" s="294"/>
+      <c r="W10" s="294"/>
+      <c r="X10" s="290"/>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1">
       <c r="B11" s="248"/>
@@ -6258,18 +7170,20 @@
       <c r="G11" s="248"/>
       <c r="H11" s="248"/>
       <c r="I11" s="248"/>
-      <c r="L11" s="296"/>
-      <c r="M11" s="297"/>
-      <c r="N11" s="330"/>
-      <c r="O11" s="330"/>
-      <c r="P11" s="330"/>
-      <c r="Q11" s="330"/>
-      <c r="R11" s="330"/>
-      <c r="S11" s="330"/>
-      <c r="T11" s="330"/>
-      <c r="U11" s="330"/>
-      <c r="V11" s="282"/>
-      <c r="W11" s="282"/>
+      <c r="K11" s="301"/>
+      <c r="L11" s="354"/>
+      <c r="M11" s="355"/>
+      <c r="N11" s="356"/>
+      <c r="O11" s="356"/>
+      <c r="P11" s="356"/>
+      <c r="Q11" s="356"/>
+      <c r="R11" s="356"/>
+      <c r="S11" s="356"/>
+      <c r="T11" s="356"/>
+      <c r="U11" s="356"/>
+      <c r="V11" s="302"/>
+      <c r="W11" s="302"/>
+      <c r="X11" s="301"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1">
       <c r="B12" s="248"/>
@@ -6280,18 +7194,20 @@
       <c r="G12" s="248"/>
       <c r="H12" s="248"/>
       <c r="I12" s="248"/>
-      <c r="L12" s="282"/>
-      <c r="M12" s="282"/>
-      <c r="N12" s="282"/>
-      <c r="O12" s="282"/>
-      <c r="P12" s="282"/>
-      <c r="Q12" s="282"/>
-      <c r="R12" s="282"/>
-      <c r="S12" s="282"/>
-      <c r="T12" s="282"/>
-      <c r="U12" s="282"/>
-      <c r="V12" s="282"/>
-      <c r="W12" s="282"/>
+      <c r="K12" s="301"/>
+      <c r="L12" s="302"/>
+      <c r="M12" s="302"/>
+      <c r="N12" s="302"/>
+      <c r="O12" s="302"/>
+      <c r="P12" s="302"/>
+      <c r="Q12" s="302"/>
+      <c r="R12" s="302"/>
+      <c r="S12" s="302"/>
+      <c r="T12" s="302"/>
+      <c r="U12" s="302"/>
+      <c r="V12" s="302"/>
+      <c r="W12" s="302"/>
+      <c r="X12" s="301"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1">
       <c r="B13" s="248"/>
@@ -6689,21 +7605,21 @@
       <c r="J40" s="120"/>
     </row>
     <row r="41" spans="1:10" ht="21.75">
-      <c r="A41" s="405" t="s">
+      <c r="A41" s="412" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="407" t="s">
+      <c r="B41" s="414" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="407"/>
-      <c r="D41" s="407" t="s">
+      <c r="C41" s="414"/>
+      <c r="D41" s="414" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="407"/>
-      <c r="F41" s="407" t="s">
+      <c r="E41" s="414"/>
+      <c r="F41" s="414" t="s">
         <v>111</v>
       </c>
-      <c r="G41" s="407"/>
+      <c r="G41" s="414"/>
       <c r="H41" s="121"/>
       <c r="I41" s="247" t="s">
         <v>113</v>
@@ -6711,7 +7627,7 @@
       <c r="J41" s="247"/>
     </row>
     <row r="42" spans="1:10" ht="21.75">
-      <c r="A42" s="406"/>
+      <c r="A42" s="413"/>
       <c r="B42" s="247" t="s">
         <v>131</v>
       </c>
@@ -6881,21 +7797,21 @@
       <c r="J49" s="120"/>
     </row>
     <row r="50" spans="1:10" ht="21.75">
-      <c r="A50" s="405" t="s">
+      <c r="A50" s="412" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="407" t="s">
+      <c r="B50" s="414" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="407"/>
-      <c r="D50" s="407" t="s">
+      <c r="C50" s="414"/>
+      <c r="D50" s="414" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="407"/>
-      <c r="F50" s="407" t="s">
+      <c r="E50" s="414"/>
+      <c r="F50" s="414" t="s">
         <v>111</v>
       </c>
-      <c r="G50" s="407"/>
+      <c r="G50" s="414"/>
       <c r="H50" s="121"/>
       <c r="I50" s="247" t="s">
         <v>113</v>
@@ -6903,7 +7819,7 @@
       <c r="J50" s="247"/>
     </row>
     <row r="51" spans="1:10" ht="21.75">
-      <c r="A51" s="406"/>
+      <c r="A51" s="413"/>
       <c r="B51" s="247" t="s">
         <v>131</v>
       </c>
@@ -7085,21 +8001,21 @@
       <c r="J59" s="120"/>
     </row>
     <row r="60" spans="1:10" ht="21.75">
-      <c r="A60" s="405" t="s">
+      <c r="A60" s="412" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="407" t="s">
+      <c r="B60" s="414" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="407"/>
-      <c r="D60" s="407" t="s">
+      <c r="C60" s="414"/>
+      <c r="D60" s="414" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="407"/>
-      <c r="F60" s="407" t="s">
+      <c r="E60" s="414"/>
+      <c r="F60" s="414" t="s">
         <v>111</v>
       </c>
-      <c r="G60" s="407"/>
+      <c r="G60" s="414"/>
       <c r="H60" s="121"/>
       <c r="I60" s="247" t="s">
         <v>113</v>
@@ -7107,7 +8023,7 @@
       <c r="J60" s="247"/>
     </row>
     <row r="61" spans="1:10" ht="21.75">
-      <c r="A61" s="406"/>
+      <c r="A61" s="413"/>
       <c r="B61" s="247" t="s">
         <v>131</v>
       </c>
@@ -7265,21 +8181,21 @@
       <c r="J67" s="120"/>
     </row>
     <row r="68" spans="1:10" ht="21.75">
-      <c r="A68" s="405" t="s">
+      <c r="A68" s="412" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="407" t="s">
+      <c r="B68" s="414" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="407"/>
-      <c r="D68" s="407" t="s">
+      <c r="C68" s="414"/>
+      <c r="D68" s="414" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="407"/>
-      <c r="F68" s="407" t="s">
+      <c r="E68" s="414"/>
+      <c r="F68" s="414" t="s">
         <v>111</v>
       </c>
-      <c r="G68" s="407"/>
+      <c r="G68" s="414"/>
       <c r="H68" s="121"/>
       <c r="I68" s="247" t="s">
         <v>113</v>
@@ -7287,7 +8203,7 @@
       <c r="J68" s="247"/>
     </row>
     <row r="69" spans="1:10" ht="21.75">
-      <c r="A69" s="406"/>
+      <c r="A69" s="413"/>
       <c r="B69" s="247" t="s">
         <v>131</v>
       </c>
@@ -7406,14 +8322,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="D68:E68"/>
@@ -7426,18 +8334,24 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="F60:G60"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="38.25" customHeight="1"/>
   <cols>
@@ -7447,78 +8361,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="6" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="386" t="s">
+      <c r="B1" s="393" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
-      <c r="F1" s="387"/>
-      <c r="G1" s="387"/>
-      <c r="K1" s="275"/>
-      <c r="L1" s="262"/>
-      <c r="M1" s="275"/>
+      <c r="C1" s="394"/>
+      <c r="D1" s="394"/>
+      <c r="E1" s="394"/>
+      <c r="F1" s="394"/>
+      <c r="G1" s="394"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="357"/>
+      <c r="N1" s="306"/>
+      <c r="O1" s="306"/>
+      <c r="P1" s="306"/>
+      <c r="Q1" s="306"/>
+      <c r="R1" s="306"/>
+      <c r="S1" s="306"/>
+      <c r="T1" s="306"/>
     </row>
     <row r="2" spans="1:20" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="366" t="s">
+      <c r="B2" s="373" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366" t="s">
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="366"/>
-      <c r="G2" s="366"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
+      <c r="F2" s="373"/>
+      <c r="G2" s="373"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="358"/>
+      <c r="K2" s="358"/>
+      <c r="L2" s="358"/>
+      <c r="M2" s="358"/>
+      <c r="N2" s="358"/>
+      <c r="O2" s="358"/>
+      <c r="P2" s="358"/>
+      <c r="Q2" s="290"/>
+      <c r="R2" s="290"/>
+      <c r="S2" s="290"/>
+      <c r="T2" s="290"/>
     </row>
     <row r="3" spans="1:20" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A3" s="219" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="258" t="s">
+      <c r="B3" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="258" t="s">
+      <c r="C3" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="258" t="s">
+      <c r="D3" s="256" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="258" t="s">
+      <c r="E3" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="258" t="s">
+      <c r="F3" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="258" t="s">
+      <c r="G3" s="256" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="264"/>
-      <c r="J3" s="347"/>
-      <c r="K3" s="348"/>
-      <c r="L3" s="348"/>
-      <c r="M3" s="348"/>
-      <c r="N3" s="348"/>
-      <c r="O3" s="348"/>
-      <c r="P3" s="348"/>
-      <c r="Q3" s="264"/>
+      <c r="I3" s="294"/>
+      <c r="J3" s="359"/>
+      <c r="K3" s="360"/>
+      <c r="L3" s="360"/>
+      <c r="M3" s="360"/>
+      <c r="N3" s="360"/>
+      <c r="O3" s="360"/>
+      <c r="P3" s="360"/>
+      <c r="Q3" s="294"/>
+      <c r="R3" s="290"/>
+      <c r="S3" s="290"/>
+      <c r="T3" s="290"/>
     </row>
     <row r="4" spans="1:20" s="120" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="258" t="s">
+      <c r="A4" s="256" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="11">
@@ -7543,21 +8473,21 @@
         <f>SUM(B4:G4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="264"/>
-      <c r="J4" s="347"/>
-      <c r="K4" s="311"/>
-      <c r="L4" s="311"/>
-      <c r="M4" s="311"/>
-      <c r="N4" s="311"/>
-      <c r="O4" s="311"/>
-      <c r="P4" s="311"/>
-      <c r="Q4" s="311"/>
-      <c r="R4" s="264"/>
-      <c r="S4" s="264"/>
-      <c r="T4" s="264"/>
+      <c r="I4" s="294"/>
+      <c r="J4" s="359"/>
+      <c r="K4" s="361"/>
+      <c r="L4" s="361"/>
+      <c r="M4" s="361"/>
+      <c r="N4" s="361"/>
+      <c r="O4" s="361"/>
+      <c r="P4" s="361"/>
+      <c r="Q4" s="361"/>
+      <c r="R4" s="294"/>
+      <c r="S4" s="294"/>
+      <c r="T4" s="294"/>
     </row>
     <row r="5" spans="1:20" s="120" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A5" s="258" t="s">
+      <c r="A5" s="256" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="237">
@@ -7582,21 +8512,21 @@
         <f>SUM(B5:G5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="264"/>
-      <c r="J5" s="312"/>
-      <c r="K5" s="312"/>
-      <c r="L5" s="313"/>
-      <c r="M5" s="313"/>
-      <c r="N5" s="313"/>
-      <c r="O5" s="313"/>
-      <c r="P5" s="313"/>
-      <c r="Q5" s="313"/>
-      <c r="R5" s="264"/>
-      <c r="S5" s="264"/>
-      <c r="T5" s="264"/>
+      <c r="I5" s="294"/>
+      <c r="J5" s="362"/>
+      <c r="K5" s="362"/>
+      <c r="L5" s="363"/>
+      <c r="M5" s="363"/>
+      <c r="N5" s="363"/>
+      <c r="O5" s="363"/>
+      <c r="P5" s="363"/>
+      <c r="Q5" s="363"/>
+      <c r="R5" s="294"/>
+      <c r="S5" s="294"/>
+      <c r="T5" s="294"/>
     </row>
     <row r="6" spans="1:20" s="120" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A6" s="258" t="s">
+      <c r="A6" s="256" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="237">
@@ -7621,42 +8551,42 @@
         <f>IF(H5=0,0,H5/12/H4)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="264"/>
-      <c r="J6" s="312"/>
-      <c r="K6" s="312"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="313"/>
-      <c r="N6" s="313"/>
-      <c r="O6" s="313"/>
-      <c r="P6" s="313"/>
-      <c r="Q6" s="313"/>
-      <c r="R6" s="264"/>
-      <c r="S6" s="264"/>
-      <c r="T6" s="264"/>
+      <c r="I6" s="294"/>
+      <c r="J6" s="362"/>
+      <c r="K6" s="362"/>
+      <c r="L6" s="363"/>
+      <c r="M6" s="363"/>
+      <c r="N6" s="363"/>
+      <c r="O6" s="363"/>
+      <c r="P6" s="363"/>
+      <c r="Q6" s="363"/>
+      <c r="R6" s="294"/>
+      <c r="S6" s="294"/>
+      <c r="T6" s="294"/>
     </row>
     <row r="7" spans="1:20" s="120" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A7" s="370" t="s">
+      <c r="A7" s="377" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="371"/>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
-      <c r="F7" s="371"/>
-      <c r="G7" s="371"/>
+      <c r="B7" s="378"/>
+      <c r="C7" s="378"/>
+      <c r="D7" s="378"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="378"/>
+      <c r="G7" s="378"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="264"/>
-      <c r="J7" s="275"/>
-      <c r="K7" s="311"/>
-      <c r="L7" s="311"/>
-      <c r="M7" s="311"/>
-      <c r="N7" s="311"/>
-      <c r="O7" s="311"/>
-      <c r="P7" s="311"/>
-      <c r="Q7" s="311"/>
-      <c r="R7" s="264"/>
-      <c r="S7" s="264"/>
-      <c r="T7" s="264"/>
+      <c r="I7" s="294"/>
+      <c r="J7" s="357"/>
+      <c r="K7" s="361"/>
+      <c r="L7" s="361"/>
+      <c r="M7" s="361"/>
+      <c r="N7" s="361"/>
+      <c r="O7" s="361"/>
+      <c r="P7" s="361"/>
+      <c r="Q7" s="361"/>
+      <c r="R7" s="294"/>
+      <c r="S7" s="294"/>
+      <c r="T7" s="294"/>
     </row>
     <row r="8" spans="1:20" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A8" s="216" t="s">
@@ -7684,17 +8614,18 @@
         <f>SUM(B8:G8)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="264"/>
-      <c r="J8" s="276"/>
-      <c r="K8" s="312"/>
-      <c r="L8" s="313"/>
-      <c r="M8" s="313"/>
-      <c r="N8" s="313"/>
-      <c r="O8" s="313"/>
-      <c r="P8" s="313"/>
-      <c r="Q8" s="313"/>
-      <c r="R8" s="264"/>
-      <c r="S8" s="264"/>
+      <c r="I8" s="294"/>
+      <c r="J8" s="364"/>
+      <c r="K8" s="362"/>
+      <c r="L8" s="363"/>
+      <c r="M8" s="363"/>
+      <c r="N8" s="363"/>
+      <c r="O8" s="363"/>
+      <c r="P8" s="363"/>
+      <c r="Q8" s="363"/>
+      <c r="R8" s="294"/>
+      <c r="S8" s="294"/>
+      <c r="T8" s="290"/>
     </row>
     <row r="9" spans="1:20" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A9" s="216" t="s">
@@ -7722,17 +8653,18 @@
         <f>SUM(B9:G9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="264"/>
-      <c r="J9" s="276"/>
-      <c r="K9" s="312"/>
-      <c r="L9" s="313"/>
-      <c r="M9" s="313"/>
-      <c r="N9" s="313"/>
-      <c r="O9" s="313"/>
-      <c r="P9" s="313"/>
-      <c r="Q9" s="313"/>
-      <c r="R9" s="264"/>
-      <c r="S9" s="264"/>
+      <c r="I9" s="294"/>
+      <c r="J9" s="364"/>
+      <c r="K9" s="362"/>
+      <c r="L9" s="363"/>
+      <c r="M9" s="363"/>
+      <c r="N9" s="363"/>
+      <c r="O9" s="363"/>
+      <c r="P9" s="363"/>
+      <c r="Q9" s="363"/>
+      <c r="R9" s="294"/>
+      <c r="S9" s="294"/>
+      <c r="T9" s="290"/>
     </row>
     <row r="10" spans="1:20" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A10" s="216" t="s">
@@ -7760,59 +8692,66 @@
         <f>IF(H9=0,0,H9/12/H8)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="264"/>
-      <c r="J10" s="264"/>
-      <c r="K10" s="312"/>
-      <c r="L10" s="329"/>
-      <c r="M10" s="329"/>
-      <c r="N10" s="329"/>
-      <c r="O10" s="329"/>
-      <c r="P10" s="329"/>
-      <c r="Q10" s="329"/>
-      <c r="R10" s="264"/>
-      <c r="S10" s="264"/>
+      <c r="I10" s="294"/>
+      <c r="J10" s="294"/>
+      <c r="K10" s="362"/>
+      <c r="L10" s="365"/>
+      <c r="M10" s="365"/>
+      <c r="N10" s="365"/>
+      <c r="O10" s="365"/>
+      <c r="P10" s="365"/>
+      <c r="Q10" s="365"/>
+      <c r="R10" s="294"/>
+      <c r="S10" s="294"/>
+      <c r="T10" s="290"/>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1">
-      <c r="B11" s="301"/>
-      <c r="C11" s="301"/>
-      <c r="D11" s="301"/>
-      <c r="E11" s="301"/>
-      <c r="F11" s="301"/>
-      <c r="G11" s="301"/>
-      <c r="J11" s="282"/>
-      <c r="K11" s="282"/>
-      <c r="L11" s="329"/>
-      <c r="M11" s="329"/>
-      <c r="N11" s="329"/>
-      <c r="O11" s="329"/>
-      <c r="P11" s="329"/>
-      <c r="Q11" s="329"/>
-      <c r="R11" s="282"/>
+      <c r="B11" s="277"/>
+      <c r="C11" s="277"/>
+      <c r="D11" s="277"/>
+      <c r="E11" s="277"/>
+      <c r="F11" s="277"/>
+      <c r="G11" s="277"/>
+      <c r="I11" s="301"/>
+      <c r="J11" s="302"/>
+      <c r="K11" s="302"/>
+      <c r="L11" s="365"/>
+      <c r="M11" s="365"/>
+      <c r="N11" s="365"/>
+      <c r="O11" s="365"/>
+      <c r="P11" s="365"/>
+      <c r="Q11" s="365"/>
+      <c r="R11" s="302"/>
+      <c r="S11" s="301"/>
+      <c r="T11" s="301"/>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1">
-      <c r="B12" s="301"/>
-      <c r="C12" s="301"/>
-      <c r="D12" s="301"/>
-      <c r="E12" s="301"/>
-      <c r="F12" s="301"/>
-      <c r="G12" s="301"/>
-      <c r="J12" s="282"/>
-      <c r="K12" s="282"/>
-      <c r="L12" s="282"/>
-      <c r="M12" s="282"/>
-      <c r="N12" s="282"/>
-      <c r="O12" s="282"/>
-      <c r="P12" s="282"/>
-      <c r="Q12" s="282"/>
-      <c r="R12" s="282"/>
+      <c r="B12" s="277"/>
+      <c r="C12" s="277"/>
+      <c r="D12" s="277"/>
+      <c r="E12" s="277"/>
+      <c r="F12" s="277"/>
+      <c r="G12" s="277"/>
+      <c r="I12" s="301"/>
+      <c r="J12" s="302"/>
+      <c r="K12" s="302"/>
+      <c r="L12" s="302"/>
+      <c r="M12" s="302"/>
+      <c r="N12" s="302"/>
+      <c r="O12" s="302"/>
+      <c r="P12" s="302"/>
+      <c r="Q12" s="302"/>
+      <c r="R12" s="302"/>
+      <c r="S12" s="301"/>
+      <c r="T12" s="301"/>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1">
-      <c r="B13" s="301"/>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
+      <c r="B13" s="277"/>
+      <c r="C13" s="277"/>
+      <c r="D13" s="277"/>
+      <c r="E13" s="277"/>
+      <c r="F13" s="277"/>
+      <c r="G13" s="277"/>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1"/>
     <row r="15" spans="1:20" customFormat="1" ht="15">
@@ -8164,13 +9103,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="38.25" customHeight="1"/>
   <cols>
@@ -8179,48 +9119,59 @@
     <col min="3" max="16384" width="19.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A1" s="303" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A1" s="278" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="341" t="s">
+      <c r="B1" s="285" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="275"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="275"/>
-    </row>
-    <row r="2" spans="1:11" s="120" customFormat="1" ht="38.25" customHeight="1">
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+    </row>
+    <row r="2" spans="1:12" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="279" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="276"/>
-    </row>
-    <row r="3" spans="1:11" s="120" customFormat="1" ht="38.25" customHeight="1">
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="290"/>
+    </row>
+    <row r="3" spans="1:12" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A3" s="219" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="279" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="264"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="276"/>
-      <c r="G3" s="268"/>
-      <c r="H3" s="276"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
-      <c r="K3" s="264"/>
-    </row>
-    <row r="4" spans="1:11" s="120" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="304" t="s">
+      <c r="D3" s="294"/>
+      <c r="E3" s="366"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="366"/>
+      <c r="H3" s="364"/>
+      <c r="I3" s="294"/>
+      <c r="J3" s="294"/>
+      <c r="K3" s="294"/>
+      <c r="L3" s="290"/>
+    </row>
+    <row r="4" spans="1:12" s="120" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A4" s="279" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="11">
@@ -8230,16 +9181,18 @@
         <f>SUM(B4)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="264"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="268"/>
-      <c r="G4" s="268"/>
-      <c r="H4" s="268"/>
-      <c r="J4" s="268"/>
-      <c r="K4" s="268"/>
-    </row>
-    <row r="5" spans="1:11" s="120" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A5" s="304" t="s">
+      <c r="D4" s="294"/>
+      <c r="E4" s="357"/>
+      <c r="F4" s="366"/>
+      <c r="G4" s="366"/>
+      <c r="H4" s="366"/>
+      <c r="I4" s="290"/>
+      <c r="J4" s="366"/>
+      <c r="K4" s="366"/>
+      <c r="L4" s="290"/>
+    </row>
+    <row r="5" spans="1:12" s="120" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A5" s="279" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="10">
@@ -8249,16 +9202,18 @@
         <f>SUM(B5)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="264"/>
-      <c r="E5" s="307"/>
-      <c r="F5" s="305"/>
-      <c r="G5" s="305"/>
-      <c r="H5" s="305"/>
-      <c r="J5" s="305"/>
-      <c r="K5" s="305"/>
-    </row>
-    <row r="6" spans="1:11" s="120" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A6" s="304" t="s">
+      <c r="D5" s="294"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="368"/>
+      <c r="G5" s="368"/>
+      <c r="H5" s="368"/>
+      <c r="I5" s="290"/>
+      <c r="J5" s="368"/>
+      <c r="K5" s="368"/>
+      <c r="L5" s="290"/>
+    </row>
+    <row r="6" spans="1:12" s="120" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A6" s="279" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="10">
@@ -8268,31 +9223,33 @@
         <f>IF(C5=0,0,C5/12/C4)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="264"/>
-      <c r="E6" s="275"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="305"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-    </row>
-    <row r="7" spans="1:11" s="120" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A7" s="370" t="s">
+      <c r="D6" s="294"/>
+      <c r="E6" s="357"/>
+      <c r="F6" s="368"/>
+      <c r="G6" s="368"/>
+      <c r="H6" s="368"/>
+      <c r="I6" s="368"/>
+      <c r="J6" s="368"/>
+      <c r="K6" s="368"/>
+      <c r="L6" s="290"/>
+    </row>
+    <row r="7" spans="1:12" s="120" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A7" s="377" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="371"/>
+      <c r="B7" s="378"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="264"/>
-      <c r="E7" s="276"/>
-      <c r="F7" s="274"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="264"/>
-      <c r="I7" s="264"/>
-      <c r="J7" s="264"/>
-      <c r="K7" s="264"/>
-    </row>
-    <row r="8" spans="1:11" s="120" customFormat="1" ht="38.25" customHeight="1">
+      <c r="D7" s="294"/>
+      <c r="E7" s="364"/>
+      <c r="F7" s="369"/>
+      <c r="G7" s="357"/>
+      <c r="H7" s="294"/>
+      <c r="I7" s="294"/>
+      <c r="J7" s="294"/>
+      <c r="K7" s="294"/>
+      <c r="L7" s="290"/>
+    </row>
+    <row r="8" spans="1:12" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A8" s="216" t="s">
         <v>5</v>
       </c>
@@ -8303,16 +9260,17 @@
         <f>SUM(B8)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="264"/>
-      <c r="E8" s="276"/>
-      <c r="F8" s="268"/>
-      <c r="G8" s="305"/>
-      <c r="H8" s="264"/>
-      <c r="I8" s="264"/>
-      <c r="J8" s="264"/>
-      <c r="K8" s="264"/>
-    </row>
-    <row r="9" spans="1:11" s="120" customFormat="1" ht="38.25" customHeight="1">
+      <c r="D8" s="294"/>
+      <c r="E8" s="364"/>
+      <c r="F8" s="366"/>
+      <c r="G8" s="368"/>
+      <c r="H8" s="294"/>
+      <c r="I8" s="294"/>
+      <c r="J8" s="294"/>
+      <c r="K8" s="294"/>
+      <c r="L8" s="290"/>
+    </row>
+    <row r="9" spans="1:12" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A9" s="216" t="s">
         <v>6</v>
       </c>
@@ -8323,15 +9281,17 @@
         <f>SUM(B9)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="264"/>
-      <c r="F9" s="305"/>
-      <c r="G9" s="305"/>
-      <c r="H9" s="264"/>
-      <c r="I9" s="264"/>
-      <c r="J9" s="264"/>
-      <c r="K9" s="264"/>
-    </row>
-    <row r="10" spans="1:11" s="120" customFormat="1" ht="38.25" customHeight="1">
+      <c r="D9" s="294"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="368"/>
+      <c r="G9" s="368"/>
+      <c r="H9" s="294"/>
+      <c r="I9" s="294"/>
+      <c r="J9" s="294"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="290"/>
+    </row>
+    <row r="10" spans="1:12" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A10" s="216" t="s">
         <v>7</v>
       </c>
@@ -8342,28 +9302,29 @@
         <f>IF(C9=0,0,C9/12/C8)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="264"/>
-      <c r="E10" s="264"/>
-      <c r="F10" s="264"/>
-      <c r="G10" s="264"/>
-      <c r="H10" s="264"/>
-      <c r="I10" s="264"/>
-      <c r="J10" s="264"/>
-      <c r="K10" s="264"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="B11" s="301"/>
+      <c r="D10" s="294"/>
+      <c r="E10" s="294"/>
+      <c r="F10" s="294"/>
+      <c r="G10" s="294"/>
+      <c r="H10" s="294"/>
+      <c r="I10" s="294"/>
+      <c r="J10" s="294"/>
+      <c r="K10" s="294"/>
+      <c r="L10" s="290"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="B11" s="277"/>
       <c r="F11" s="248"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="B12" s="301"/>
+    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="B12" s="277"/>
       <c r="F12" s="248"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="B13" s="301"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1"/>
-    <row r="15" spans="1:11" s="269" customFormat="1" ht="15">
+    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="B13" s="277"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1"/>
+    <row r="15" spans="1:12" s="260" customFormat="1" ht="15">
       <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
@@ -8373,7 +9334,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:11" s="269" customFormat="1" ht="15">
+    <row r="16" spans="1:12" s="260" customFormat="1" ht="15">
       <c r="A16" s="19" t="s">
         <v>18</v>
       </c>
@@ -8385,7 +9346,7 @@
       <c r="E16" s="21"/>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6" s="269" customFormat="1" ht="15">
+    <row r="17" spans="1:6" s="260" customFormat="1" ht="15">
       <c r="A17" s="23" t="s">
         <v>22</v>
       </c>
@@ -8397,10 +9358,10 @@
       <c r="E17" s="25"/>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="1:6" s="269" customFormat="1" ht="15">
+    <row r="18" spans="1:6" s="260" customFormat="1" ht="15">
       <c r="A18" s="27"/>
     </row>
-    <row r="19" spans="1:6" s="269" customFormat="1" ht="15">
+    <row r="19" spans="1:6" s="260" customFormat="1" ht="15">
       <c r="A19" s="28" t="s">
         <v>25</v>
       </c>
@@ -8410,7 +9371,7 @@
       <c r="E19" s="29"/>
       <c r="F19" s="30"/>
     </row>
-    <row r="20" spans="1:6" s="269" customFormat="1" ht="15">
+    <row r="20" spans="1:6" s="260" customFormat="1" ht="15">
       <c r="A20" s="19" t="s">
         <v>26</v>
       </c>
@@ -8422,7 +9383,7 @@
       <c r="E20" s="21"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6" s="269" customFormat="1" ht="15">
+    <row r="21" spans="1:6" s="260" customFormat="1" ht="15">
       <c r="A21" s="23" t="s">
         <v>30</v>
       </c>
@@ -8461,30 +9422,30 @@
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="367" t="s">
+      <c r="B1" s="374" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
+      <c r="C1" s="375"/>
+      <c r="D1" s="375"/>
+      <c r="E1" s="375"/>
+      <c r="F1" s="375"/>
+      <c r="G1" s="375"/>
     </row>
     <row r="2" spans="1:12" ht="36" customHeight="1">
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="366" t="s">
+      <c r="B2" s="373" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366" t="s">
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="366"/>
-      <c r="G2" s="366"/>
-      <c r="I2" s="269"/>
+      <c r="F2" s="373"/>
+      <c r="G2" s="373"/>
+      <c r="I2" s="260"/>
       <c r="J2" s="242"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1">
@@ -8509,7 +9470,7 @@
       <c r="G3" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="254"/>
+      <c r="I3" s="252"/>
       <c r="J3" s="242"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
@@ -8538,7 +9499,7 @@
         <f>SUM(B4:G4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="269"/>
+      <c r="I4" s="260"/>
       <c r="J4" s="241"/>
     </row>
     <row r="5" spans="1:12" ht="36" customHeight="1">
@@ -8598,15 +9559,15 @@
       <c r="J6" s="241"/>
     </row>
     <row r="7" spans="1:12" ht="36" customHeight="1">
-      <c r="A7" s="370" t="s">
+      <c r="A7" s="377" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="371"/>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
-      <c r="F7" s="371"/>
-      <c r="G7" s="371"/>
+      <c r="B7" s="378"/>
+      <c r="C7" s="378"/>
+      <c r="D7" s="378"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="378"/>
+      <c r="G7" s="378"/>
       <c r="H7" s="12"/>
       <c r="J7" s="241"/>
     </row>
@@ -8698,8 +9659,8 @@
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1"/>
     <row r="12" spans="1:12" ht="15" customHeight="1">
-      <c r="J12" s="255"/>
-      <c r="K12" s="256"/>
+      <c r="J12" s="253"/>
+      <c r="K12" s="254"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="16" t="s">
@@ -8711,8 +9672,8 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
-      <c r="I13" s="256"/>
-      <c r="K13" s="256"/>
+      <c r="I13" s="254"/>
+      <c r="K13" s="254"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1">
       <c r="A14" s="19" t="s">
@@ -8822,70 +9783,70 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="36" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="16.85546875" style="269"/>
+    <col min="1" max="16384" width="16.85546875" style="260"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="36" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="367" t="s">
+      <c r="B1" s="374" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
+      <c r="C1" s="375"/>
+      <c r="D1" s="375"/>
+      <c r="E1" s="375"/>
+      <c r="F1" s="375"/>
+      <c r="G1" s="375"/>
     </row>
     <row r="2" spans="1:12" ht="36" customHeight="1">
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="366" t="s">
+      <c r="B2" s="373" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366" t="s">
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="366"/>
-      <c r="G2" s="366"/>
+      <c r="F2" s="373"/>
+      <c r="G2" s="373"/>
       <c r="J2" s="242"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1">
       <c r="A3" s="219" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="287" t="s">
+      <c r="B3" s="269" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="287" t="s">
+      <c r="C3" s="269" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="287" t="s">
+      <c r="D3" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="287" t="s">
+      <c r="E3" s="269" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="287" t="s">
+      <c r="F3" s="269" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="287" t="s">
+      <c r="G3" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="254"/>
+      <c r="I3" s="252"/>
       <c r="J3" s="242"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="269" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="11">
@@ -8913,7 +9874,7 @@
       <c r="J4" s="241"/>
     </row>
     <row r="5" spans="1:12" ht="36" customHeight="1">
-      <c r="A5" s="287" t="s">
+      <c r="A5" s="269" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="237">
@@ -8941,7 +9902,7 @@
       <c r="J5" s="241"/>
     </row>
     <row r="6" spans="1:12" ht="36" customHeight="1">
-      <c r="A6" s="287" t="s">
+      <c r="A6" s="269" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="237">
@@ -8969,15 +9930,15 @@
       <c r="J6" s="241"/>
     </row>
     <row r="7" spans="1:12" ht="36" customHeight="1">
-      <c r="A7" s="370" t="s">
+      <c r="A7" s="377" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="371"/>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
-      <c r="F7" s="371"/>
-      <c r="G7" s="371"/>
+      <c r="B7" s="378"/>
+      <c r="C7" s="378"/>
+      <c r="D7" s="378"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="378"/>
+      <c r="G7" s="378"/>
       <c r="H7" s="12"/>
       <c r="J7" s="241"/>
     </row>
@@ -9069,8 +10030,8 @@
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1"/>
     <row r="12" spans="1:12" ht="15" customHeight="1">
-      <c r="J12" s="255"/>
-      <c r="K12" s="256"/>
+      <c r="J12" s="253"/>
+      <c r="K12" s="254"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="16" t="s">
@@ -9082,8 +10043,8 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
-      <c r="I13" s="256"/>
-      <c r="K13" s="256"/>
+      <c r="I13" s="254"/>
+      <c r="K13" s="254"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1">
       <c r="A14" s="19" t="s">
@@ -9206,49 +10167,49 @@
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="367" t="s">
+      <c r="B1" s="374" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
-      <c r="J1" s="368"/>
-      <c r="K1" s="368"/>
-      <c r="L1" s="368"/>
-      <c r="M1" s="369"/>
-      <c r="O1" s="288"/>
-      <c r="P1" s="288"/>
+      <c r="C1" s="375"/>
+      <c r="D1" s="375"/>
+      <c r="E1" s="375"/>
+      <c r="F1" s="375"/>
+      <c r="G1" s="375"/>
+      <c r="H1" s="375"/>
+      <c r="I1" s="375"/>
+      <c r="J1" s="375"/>
+      <c r="K1" s="375"/>
+      <c r="L1" s="375"/>
+      <c r="M1" s="376"/>
+      <c r="O1" s="270"/>
+      <c r="P1" s="270"/>
     </row>
     <row r="2" spans="1:16" s="119" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="366" t="s">
+      <c r="B2" s="373" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366" t="s">
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="366"/>
-      <c r="G2" s="366"/>
-      <c r="H2" s="366" t="s">
+      <c r="F2" s="373"/>
+      <c r="G2" s="373"/>
+      <c r="H2" s="373" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="366"/>
-      <c r="J2" s="366"/>
-      <c r="K2" s="366" t="s">
+      <c r="I2" s="373"/>
+      <c r="J2" s="373"/>
+      <c r="K2" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="366"/>
-      <c r="M2" s="366"/>
-      <c r="O2" s="289"/>
-      <c r="P2" s="289"/>
+      <c r="L2" s="373"/>
+      <c r="M2" s="373"/>
+      <c r="O2" s="271"/>
+      <c r="P2" s="271"/>
     </row>
     <row r="3" spans="1:16" s="119" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="219" t="s">
@@ -9290,8 +10251,8 @@
       <c r="M3" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="291"/>
-      <c r="P3" s="289"/>
+      <c r="O3" s="273"/>
+      <c r="P3" s="271"/>
     </row>
     <row r="4" spans="1:16" s="119" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="239" t="s">
@@ -9337,8 +10298,8 @@
         <f>SUM(B4:M4)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="290"/>
-      <c r="P4" s="289"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="271"/>
     </row>
     <row r="5" spans="1:16" s="119" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="239" t="s">
@@ -9384,8 +10345,8 @@
         <f t="shared" ref="N5" si="0">SUM(B5:M5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="290"/>
-      <c r="P5" s="289"/>
+      <c r="O5" s="272"/>
+      <c r="P5" s="271"/>
     </row>
     <row r="6" spans="1:16" s="119" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="239" t="s">
@@ -9431,28 +10392,28 @@
         <f>IF(N5=0,0,N5/12/N4)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="290"/>
-      <c r="P6" s="289"/>
+      <c r="O6" s="272"/>
+      <c r="P6" s="271"/>
     </row>
     <row r="7" spans="1:16" s="119" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="370" t="s">
+      <c r="A7" s="377" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="371"/>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
-      <c r="F7" s="371"/>
-      <c r="G7" s="371"/>
-      <c r="H7" s="371"/>
-      <c r="I7" s="371"/>
-      <c r="J7" s="371"/>
-      <c r="K7" s="371"/>
-      <c r="L7" s="371"/>
-      <c r="M7" s="372"/>
+      <c r="B7" s="378"/>
+      <c r="C7" s="378"/>
+      <c r="D7" s="378"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="378"/>
+      <c r="G7" s="378"/>
+      <c r="H7" s="378"/>
+      <c r="I7" s="378"/>
+      <c r="J7" s="378"/>
+      <c r="K7" s="378"/>
+      <c r="L7" s="378"/>
+      <c r="M7" s="379"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="289"/>
-      <c r="P7" s="289"/>
+      <c r="O7" s="271"/>
+      <c r="P7" s="271"/>
     </row>
     <row r="8" spans="1:16" s="119" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="216" t="s">
@@ -9498,8 +10459,8 @@
         <f>SUM(B8:M8)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="290"/>
-      <c r="P8" s="289"/>
+      <c r="O8" s="272"/>
+      <c r="P8" s="271"/>
     </row>
     <row r="9" spans="1:16" s="119" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="216" t="s">
@@ -9545,8 +10506,8 @@
         <f t="shared" ref="N9" si="1">SUM(B9:M9)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="290"/>
-      <c r="P9" s="289"/>
+      <c r="O9" s="272"/>
+      <c r="P9" s="271"/>
     </row>
     <row r="10" spans="1:16" s="119" customFormat="1" ht="21" customHeight="1">
       <c r="A10" s="216" t="s">
@@ -9592,12 +10553,12 @@
         <f>IF(N9=0,0,N9/12/N8)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="289"/>
-      <c r="P10" s="289"/>
+      <c r="O10" s="271"/>
+      <c r="P10" s="271"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1"/>
     <row r="12" spans="1:16" ht="15" customHeight="1">
-      <c r="P12" s="255"/>
+      <c r="P12" s="253"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1"/>
     <row r="15" spans="1:16" ht="15">
@@ -9797,69 +10758,69 @@
       <c r="A25" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="379" t="s">
+      <c r="B25" s="380" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="380"/>
-      <c r="D25" s="380"/>
-      <c r="E25" s="380"/>
-      <c r="F25" s="380"/>
-      <c r="G25" s="381"/>
-      <c r="H25" s="379" t="s">
+      <c r="C25" s="381"/>
+      <c r="D25" s="381"/>
+      <c r="E25" s="381"/>
+      <c r="F25" s="381"/>
+      <c r="G25" s="382"/>
+      <c r="H25" s="380" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="380"/>
-      <c r="J25" s="380"/>
-      <c r="K25" s="380"/>
-      <c r="L25" s="380"/>
-      <c r="M25" s="381"/>
-      <c r="N25" s="379" t="s">
+      <c r="I25" s="381"/>
+      <c r="J25" s="381"/>
+      <c r="K25" s="381"/>
+      <c r="L25" s="381"/>
+      <c r="M25" s="382"/>
+      <c r="N25" s="380" t="s">
         <v>4</v>
       </c>
-      <c r="O25" s="380"/>
-      <c r="P25" s="380"/>
-      <c r="Q25" s="380"/>
-      <c r="R25" s="380"/>
-      <c r="S25" s="381"/>
+      <c r="O25" s="381"/>
+      <c r="P25" s="381"/>
+      <c r="Q25" s="381"/>
+      <c r="R25" s="381"/>
+      <c r="S25" s="382"/>
     </row>
     <row r="26" spans="1:19" s="95" customFormat="1" ht="15">
       <c r="A26" s="96"/>
       <c r="B26" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="379" t="s">
+      <c r="C26" s="380" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="381"/>
-      <c r="E26" s="379" t="s">
+      <c r="D26" s="382"/>
+      <c r="E26" s="380" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="380"/>
-      <c r="G26" s="381"/>
+      <c r="F26" s="381"/>
+      <c r="G26" s="382"/>
       <c r="H26" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="379" t="s">
+      <c r="I26" s="380" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="381"/>
-      <c r="K26" s="379" t="s">
+      <c r="J26" s="382"/>
+      <c r="K26" s="380" t="s">
         <v>89</v>
       </c>
-      <c r="L26" s="380"/>
-      <c r="M26" s="381"/>
+      <c r="L26" s="381"/>
+      <c r="M26" s="382"/>
       <c r="N26" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="O26" s="379" t="s">
+      <c r="O26" s="380" t="s">
         <v>88</v>
       </c>
-      <c r="P26" s="381"/>
-      <c r="Q26" s="379" t="s">
+      <c r="P26" s="382"/>
+      <c r="Q26" s="380" t="s">
         <v>89</v>
       </c>
-      <c r="R26" s="380"/>
-      <c r="S26" s="381"/>
+      <c r="R26" s="381"/>
+      <c r="S26" s="382"/>
     </row>
     <row r="27" spans="1:19" s="95" customFormat="1" ht="15">
       <c r="A27" s="96"/>
@@ -10474,39 +11435,39 @@
       <c r="B37" s="102">
         <v>3261</v>
       </c>
-      <c r="C37" s="373">
+      <c r="C37" s="383">
         <v>6196</v>
       </c>
-      <c r="D37" s="375"/>
-      <c r="E37" s="373">
+      <c r="D37" s="385"/>
+      <c r="E37" s="383">
         <v>7829</v>
       </c>
-      <c r="F37" s="374"/>
-      <c r="G37" s="375"/>
+      <c r="F37" s="384"/>
+      <c r="G37" s="385"/>
       <c r="H37" s="102">
         <v>4773</v>
       </c>
-      <c r="I37" s="373">
+      <c r="I37" s="383">
         <v>9068</v>
       </c>
-      <c r="J37" s="375"/>
-      <c r="K37" s="373">
+      <c r="J37" s="385"/>
+      <c r="K37" s="383">
         <v>10853</v>
       </c>
-      <c r="L37" s="374"/>
-      <c r="M37" s="375"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="385"/>
       <c r="N37" s="102">
         <v>6546</v>
       </c>
-      <c r="O37" s="373">
+      <c r="O37" s="383">
         <v>12438</v>
       </c>
-      <c r="P37" s="375"/>
-      <c r="Q37" s="373">
+      <c r="P37" s="385"/>
+      <c r="Q37" s="383">
         <v>15086</v>
       </c>
-      <c r="R37" s="374"/>
-      <c r="S37" s="375"/>
+      <c r="R37" s="384"/>
+      <c r="S37" s="385"/>
     </row>
     <row r="38" spans="1:19" s="95" customFormat="1" ht="15">
       <c r="A38" s="101" t="s">
@@ -10515,39 +11476,39 @@
       <c r="B38" s="102">
         <v>14</v>
       </c>
-      <c r="C38" s="373">
+      <c r="C38" s="383">
         <v>25</v>
       </c>
-      <c r="D38" s="375"/>
-      <c r="E38" s="373">
+      <c r="D38" s="385"/>
+      <c r="E38" s="383">
         <v>32</v>
       </c>
-      <c r="F38" s="374"/>
-      <c r="G38" s="375"/>
+      <c r="F38" s="384"/>
+      <c r="G38" s="385"/>
       <c r="H38" s="102">
         <v>20</v>
       </c>
-      <c r="I38" s="373">
+      <c r="I38" s="383">
         <v>37</v>
       </c>
-      <c r="J38" s="375"/>
-      <c r="K38" s="373">
+      <c r="J38" s="385"/>
+      <c r="K38" s="383">
         <v>44</v>
       </c>
-      <c r="L38" s="374"/>
-      <c r="M38" s="375"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="385"/>
       <c r="N38" s="102">
         <v>27</v>
       </c>
-      <c r="O38" s="373">
+      <c r="O38" s="383">
         <v>50</v>
       </c>
-      <c r="P38" s="375"/>
-      <c r="Q38" s="373">
+      <c r="P38" s="385"/>
+      <c r="Q38" s="383">
         <v>61</v>
       </c>
-      <c r="R38" s="374"/>
-      <c r="S38" s="375"/>
+      <c r="R38" s="384"/>
+      <c r="S38" s="385"/>
     </row>
     <row r="39" spans="1:19" s="95" customFormat="1" ht="15">
       <c r="A39" s="103" t="s">
@@ -10556,39 +11517,39 @@
       <c r="B39" s="104">
         <v>3275</v>
       </c>
-      <c r="C39" s="376">
+      <c r="C39" s="386">
         <v>6221</v>
       </c>
-      <c r="D39" s="377"/>
-      <c r="E39" s="376">
+      <c r="D39" s="388"/>
+      <c r="E39" s="386">
         <v>7861</v>
       </c>
-      <c r="F39" s="378"/>
-      <c r="G39" s="377"/>
+      <c r="F39" s="387"/>
+      <c r="G39" s="388"/>
       <c r="H39" s="104">
         <v>4793</v>
       </c>
-      <c r="I39" s="376">
+      <c r="I39" s="386">
         <v>9105</v>
       </c>
-      <c r="J39" s="377"/>
-      <c r="K39" s="376">
+      <c r="J39" s="388"/>
+      <c r="K39" s="386">
         <v>10897</v>
       </c>
-      <c r="L39" s="378"/>
-      <c r="M39" s="377"/>
+      <c r="L39" s="387"/>
+      <c r="M39" s="388"/>
       <c r="N39" s="104">
         <v>6573</v>
       </c>
-      <c r="O39" s="376">
+      <c r="O39" s="386">
         <v>12488</v>
       </c>
-      <c r="P39" s="377"/>
-      <c r="Q39" s="376">
+      <c r="P39" s="388"/>
+      <c r="Q39" s="386">
         <v>15147</v>
       </c>
-      <c r="R39" s="378"/>
-      <c r="S39" s="377"/>
+      <c r="R39" s="387"/>
+      <c r="S39" s="388"/>
     </row>
     <row r="40" spans="1:19" s="95" customFormat="1" ht="15">
       <c r="A40" s="101" t="s">
@@ -10597,39 +11558,39 @@
       <c r="B40" s="102">
         <v>271</v>
       </c>
-      <c r="C40" s="373">
+      <c r="C40" s="383">
         <v>516</v>
       </c>
-      <c r="D40" s="375"/>
-      <c r="E40" s="373">
+      <c r="D40" s="385"/>
+      <c r="E40" s="383">
         <v>653</v>
       </c>
-      <c r="F40" s="374"/>
-      <c r="G40" s="375"/>
+      <c r="F40" s="384"/>
+      <c r="G40" s="385"/>
       <c r="H40" s="102">
         <v>398</v>
       </c>
-      <c r="I40" s="373">
+      <c r="I40" s="383">
         <v>755</v>
       </c>
-      <c r="J40" s="375"/>
-      <c r="K40" s="373">
+      <c r="J40" s="385"/>
+      <c r="K40" s="383">
         <v>905</v>
       </c>
-      <c r="L40" s="374"/>
-      <c r="M40" s="375"/>
+      <c r="L40" s="384"/>
+      <c r="M40" s="385"/>
       <c r="N40" s="102">
         <v>545</v>
       </c>
-      <c r="O40" s="373">
+      <c r="O40" s="383">
         <v>1036</v>
       </c>
-      <c r="P40" s="375"/>
-      <c r="Q40" s="373">
+      <c r="P40" s="385"/>
+      <c r="Q40" s="383">
         <v>1257</v>
       </c>
-      <c r="R40" s="374"/>
-      <c r="S40" s="375"/>
+      <c r="R40" s="384"/>
+      <c r="S40" s="385"/>
     </row>
     <row r="41" spans="1:19" s="95" customFormat="1" ht="15">
       <c r="A41" s="101" t="s">
@@ -10638,39 +11599,39 @@
       <c r="B41" s="102">
         <v>2</v>
       </c>
-      <c r="C41" s="373">
+      <c r="C41" s="383">
         <v>3</v>
       </c>
-      <c r="D41" s="375"/>
-      <c r="E41" s="373">
+      <c r="D41" s="385"/>
+      <c r="E41" s="383">
         <v>3</v>
       </c>
-      <c r="F41" s="374"/>
-      <c r="G41" s="375"/>
+      <c r="F41" s="384"/>
+      <c r="G41" s="385"/>
       <c r="H41" s="102">
         <v>2</v>
       </c>
-      <c r="I41" s="373">
+      <c r="I41" s="383">
         <v>4</v>
       </c>
-      <c r="J41" s="375"/>
-      <c r="K41" s="373">
+      <c r="J41" s="385"/>
+      <c r="K41" s="383">
         <v>4</v>
       </c>
-      <c r="L41" s="374"/>
-      <c r="M41" s="375"/>
+      <c r="L41" s="384"/>
+      <c r="M41" s="385"/>
       <c r="N41" s="102">
         <v>3</v>
       </c>
-      <c r="O41" s="373">
+      <c r="O41" s="383">
         <v>5</v>
       </c>
-      <c r="P41" s="375"/>
-      <c r="Q41" s="373">
+      <c r="P41" s="385"/>
+      <c r="Q41" s="383">
         <v>6</v>
       </c>
-      <c r="R41" s="374"/>
-      <c r="S41" s="375"/>
+      <c r="R41" s="384"/>
+      <c r="S41" s="385"/>
     </row>
     <row r="42" spans="1:19" s="95" customFormat="1" ht="15">
       <c r="A42" s="103" t="s">
@@ -10679,57 +11640,66 @@
       <c r="B42" s="104">
         <v>273</v>
       </c>
-      <c r="C42" s="376">
+      <c r="C42" s="386">
         <v>519</v>
       </c>
-      <c r="D42" s="377"/>
-      <c r="E42" s="376">
+      <c r="D42" s="388"/>
+      <c r="E42" s="386">
         <v>656</v>
       </c>
-      <c r="F42" s="378"/>
-      <c r="G42" s="377"/>
+      <c r="F42" s="387"/>
+      <c r="G42" s="388"/>
       <c r="H42" s="104">
         <v>400</v>
       </c>
-      <c r="I42" s="376">
+      <c r="I42" s="386">
         <v>759</v>
       </c>
-      <c r="J42" s="377"/>
-      <c r="K42" s="376">
+      <c r="J42" s="388"/>
+      <c r="K42" s="386">
         <v>909</v>
       </c>
-      <c r="L42" s="378"/>
-      <c r="M42" s="377"/>
+      <c r="L42" s="387"/>
+      <c r="M42" s="388"/>
       <c r="N42" s="104">
         <v>548</v>
       </c>
-      <c r="O42" s="376">
+      <c r="O42" s="386">
         <v>1041</v>
       </c>
-      <c r="P42" s="377"/>
-      <c r="Q42" s="376">
+      <c r="P42" s="388"/>
+      <c r="Q42" s="386">
         <v>1263</v>
       </c>
-      <c r="R42" s="378"/>
-      <c r="S42" s="377"/>
+      <c r="R42" s="387"/>
+      <c r="S42" s="388"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="O39:P39"/>
     <mergeCell ref="Q37:S37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="E38:G38"/>
@@ -10742,30 +11712,21 @@
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="K37:M37"/>
     <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10781,99 +11742,99 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="269"/>
-    <col min="2" max="13" width="15.7109375" style="269" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="269" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="16.5703125" style="269"/>
+    <col min="1" max="1" width="16.5703125" style="260"/>
+    <col min="2" max="13" width="15.7109375" style="260" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="260" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="16.5703125" style="260"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="367" t="s">
+      <c r="B1" s="374" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
-      <c r="J1" s="368"/>
-      <c r="K1" s="368"/>
-      <c r="L1" s="368"/>
-      <c r="M1" s="369"/>
+      <c r="C1" s="375"/>
+      <c r="D1" s="375"/>
+      <c r="E1" s="375"/>
+      <c r="F1" s="375"/>
+      <c r="G1" s="375"/>
+      <c r="H1" s="375"/>
+      <c r="I1" s="375"/>
+      <c r="J1" s="375"/>
+      <c r="K1" s="375"/>
+      <c r="L1" s="375"/>
+      <c r="M1" s="376"/>
     </row>
     <row r="2" spans="1:16" s="119" customFormat="1" ht="15">
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="366" t="s">
+      <c r="B2" s="373" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366" t="s">
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="366"/>
-      <c r="G2" s="366"/>
-      <c r="H2" s="366" t="s">
+      <c r="F2" s="373"/>
+      <c r="G2" s="373"/>
+      <c r="H2" s="373" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="366"/>
-      <c r="J2" s="366"/>
-      <c r="K2" s="366" t="s">
+      <c r="I2" s="373"/>
+      <c r="J2" s="373"/>
+      <c r="K2" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="366"/>
-      <c r="M2" s="366"/>
+      <c r="L2" s="373"/>
+      <c r="M2" s="373"/>
     </row>
     <row r="3" spans="1:16" s="119" customFormat="1" ht="15">
       <c r="A3" s="219" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="258" t="s">
+      <c r="B3" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="258" t="s">
+      <c r="C3" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="258" t="s">
+      <c r="D3" s="256" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="258" t="s">
+      <c r="E3" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="258" t="s">
+      <c r="F3" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="258" t="s">
+      <c r="G3" s="256" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="258" t="s">
+      <c r="I3" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="258" t="s">
+      <c r="J3" s="256" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="258" t="s">
+      <c r="K3" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="258" t="s">
+      <c r="L3" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="258" t="s">
+      <c r="M3" s="256" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="119" customFormat="1" ht="15">
-      <c r="A4" s="258" t="s">
+      <c r="A4" s="256" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="11">
@@ -10918,7 +11879,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" s="119" customFormat="1" ht="15">
-      <c r="A5" s="258" t="s">
+      <c r="A5" s="256" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="237">
@@ -10964,7 +11925,7 @@
       <c r="O5" s="240"/>
     </row>
     <row r="6" spans="1:16" s="119" customFormat="1" ht="15">
-      <c r="A6" s="258" t="s">
+      <c r="A6" s="256" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="237">
@@ -11010,21 +11971,21 @@
       <c r="O6" s="240"/>
     </row>
     <row r="7" spans="1:16" s="119" customFormat="1" ht="15">
-      <c r="A7" s="370" t="s">
+      <c r="A7" s="377" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="371"/>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
-      <c r="F7" s="371"/>
-      <c r="G7" s="371"/>
-      <c r="H7" s="371"/>
-      <c r="I7" s="371"/>
-      <c r="J7" s="371"/>
-      <c r="K7" s="371"/>
-      <c r="L7" s="371"/>
-      <c r="M7" s="372"/>
+      <c r="B7" s="378"/>
+      <c r="C7" s="378"/>
+      <c r="D7" s="378"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="378"/>
+      <c r="G7" s="378"/>
+      <c r="H7" s="378"/>
+      <c r="I7" s="378"/>
+      <c r="J7" s="378"/>
+      <c r="K7" s="378"/>
+      <c r="L7" s="378"/>
+      <c r="M7" s="379"/>
       <c r="N7" s="15"/>
       <c r="O7" s="240"/>
     </row>
@@ -11072,7 +12033,7 @@
         <f>SUM(B8:M8)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="273"/>
+      <c r="P8" s="261"/>
     </row>
     <row r="9" spans="1:16" s="119" customFormat="1" ht="15">
       <c r="A9" s="216" t="s">
@@ -11168,12 +12129,12 @@
     </row>
     <row r="11" spans="1:16" ht="15">
       <c r="O11" s="119"/>
-      <c r="P11" s="256"/>
+      <c r="P11" s="254"/>
     </row>
     <row r="12" spans="1:16" ht="15">
-      <c r="D12" s="256"/>
-      <c r="E12" s="256"/>
-      <c r="P12" s="255"/>
+      <c r="D12" s="254"/>
+      <c r="E12" s="254"/>
+      <c r="P12" s="253"/>
     </row>
     <row r="13" spans="1:16" ht="15"/>
     <row r="15" spans="1:16" ht="15">
@@ -11370,100 +12331,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="269"/>
-    <col min="2" max="13" width="16" style="269" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="269" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="16.5703125" style="269"/>
+    <col min="1" max="1" width="16.5703125" style="260"/>
+    <col min="2" max="13" width="16" style="260" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="260" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="16.5703125" style="260"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="367" t="s">
+      <c r="B1" s="374" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
-      <c r="J1" s="368"/>
-      <c r="K1" s="368"/>
-      <c r="L1" s="368"/>
-      <c r="M1" s="369"/>
+      <c r="C1" s="375"/>
+      <c r="D1" s="375"/>
+      <c r="E1" s="375"/>
+      <c r="F1" s="375"/>
+      <c r="G1" s="375"/>
+      <c r="H1" s="375"/>
+      <c r="I1" s="375"/>
+      <c r="J1" s="375"/>
+      <c r="K1" s="375"/>
+      <c r="L1" s="375"/>
+      <c r="M1" s="376"/>
     </row>
     <row r="2" spans="1:16" s="119" customFormat="1" ht="15">
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="366" t="s">
+      <c r="B2" s="373" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366" t="s">
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="366"/>
-      <c r="G2" s="366"/>
-      <c r="H2" s="366" t="s">
+      <c r="F2" s="373"/>
+      <c r="G2" s="373"/>
+      <c r="H2" s="373" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="366"/>
-      <c r="J2" s="366"/>
-      <c r="K2" s="366" t="s">
+      <c r="I2" s="373"/>
+      <c r="J2" s="373"/>
+      <c r="K2" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="366"/>
-      <c r="M2" s="366"/>
+      <c r="L2" s="373"/>
+      <c r="M2" s="373"/>
     </row>
     <row r="3" spans="1:16" s="119" customFormat="1" ht="15">
       <c r="A3" s="219" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="286" t="s">
+      <c r="B3" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="286" t="s">
+      <c r="C3" s="268" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="286" t="s">
+      <c r="D3" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="286" t="s">
+      <c r="E3" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="286" t="s">
+      <c r="F3" s="268" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="286" t="s">
+      <c r="G3" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="286" t="s">
+      <c r="H3" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="286" t="s">
+      <c r="I3" s="268" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="286" t="s">
+      <c r="J3" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="286" t="s">
+      <c r="K3" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="286" t="s">
+      <c r="L3" s="268" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="286" t="s">
+      <c r="M3" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="285"/>
+      <c r="O3" s="267"/>
     </row>
     <row r="4" spans="1:16" s="119" customFormat="1" ht="15">
-      <c r="A4" s="286" t="s">
+      <c r="A4" s="268" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="11">
@@ -11506,10 +12467,10 @@
         <f>SUM(B4:M4)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="292"/>
+      <c r="O4" s="274"/>
     </row>
     <row r="5" spans="1:16" s="119" customFormat="1" ht="15">
-      <c r="A5" s="286" t="s">
+      <c r="A5" s="268" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="237">
@@ -11552,10 +12513,10 @@
         <f t="shared" ref="N5" si="0">SUM(B5:M5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="292"/>
+      <c r="O5" s="274"/>
     </row>
     <row r="6" spans="1:16" s="119" customFormat="1" ht="15">
-      <c r="A6" s="286" t="s">
+      <c r="A6" s="268" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="237">
@@ -11598,26 +12559,26 @@
         <f>IF(N5=0,0,N5/12/N4)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="292"/>
+      <c r="O6" s="274"/>
     </row>
     <row r="7" spans="1:16" s="119" customFormat="1" ht="15">
-      <c r="A7" s="370" t="s">
+      <c r="A7" s="377" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="371"/>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
-      <c r="F7" s="371"/>
-      <c r="G7" s="371"/>
-      <c r="H7" s="371"/>
-      <c r="I7" s="371"/>
-      <c r="J7" s="371"/>
-      <c r="K7" s="371"/>
-      <c r="L7" s="371"/>
-      <c r="M7" s="372"/>
+      <c r="B7" s="378"/>
+      <c r="C7" s="378"/>
+      <c r="D7" s="378"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="378"/>
+      <c r="G7" s="378"/>
+      <c r="H7" s="378"/>
+      <c r="I7" s="378"/>
+      <c r="J7" s="378"/>
+      <c r="K7" s="378"/>
+      <c r="L7" s="378"/>
+      <c r="M7" s="379"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="285"/>
+      <c r="O7" s="267"/>
     </row>
     <row r="8" spans="1:16" s="119" customFormat="1" ht="15">
       <c r="A8" s="216" t="s">
@@ -11663,8 +12624,8 @@
         <f>SUM(B8:M8)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="292"/>
-      <c r="P8" s="273"/>
+      <c r="O8" s="274"/>
+      <c r="P8" s="261"/>
     </row>
     <row r="9" spans="1:16" s="119" customFormat="1" ht="15">
       <c r="A9" s="216" t="s">
@@ -11710,7 +12671,7 @@
         <f t="shared" ref="N9" si="1">SUM(B9:M9)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="292"/>
+      <c r="O9" s="274"/>
     </row>
     <row r="10" spans="1:16" s="119" customFormat="1" ht="15">
       <c r="A10" s="216" t="s">
@@ -11756,17 +12717,17 @@
         <f>IF(N9=0,0,N9/12/N8)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="285"/>
+      <c r="O10" s="267"/>
     </row>
     <row r="11" spans="1:16" ht="15">
-      <c r="P11" s="256"/>
+      <c r="P11" s="254"/>
     </row>
     <row r="12" spans="1:16" ht="15">
-      <c r="D12" s="256"/>
-      <c r="P12" s="255"/>
+      <c r="D12" s="254"/>
+      <c r="P12" s="253"/>
     </row>
     <row r="13" spans="1:16" ht="15">
-      <c r="L13" s="255"/>
+      <c r="L13" s="253"/>
     </row>
     <row r="15" spans="1:16" ht="15">
       <c r="A15" s="16" t="s">
@@ -11960,7 +12921,7 @@
   <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="38.25" customHeight="1"/>
@@ -11981,31 +12942,31 @@
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="386" t="s">
+      <c r="B1" s="393" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
-      <c r="F1" s="387"/>
-      <c r="G1" s="387"/>
-      <c r="H1" s="387"/>
-      <c r="I1" s="387"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
-      <c r="N1" s="260"/>
-      <c r="O1" s="260"/>
-      <c r="P1" s="260"/>
-      <c r="Q1" s="260"/>
-      <c r="R1" s="261"/>
-      <c r="S1" s="262"/>
-      <c r="T1" s="250"/>
-      <c r="U1" s="250"/>
-      <c r="V1" s="250"/>
-      <c r="W1" s="250"/>
-      <c r="X1" s="250"/>
-      <c r="Y1" s="250"/>
+      <c r="C1" s="394"/>
+      <c r="D1" s="394"/>
+      <c r="E1" s="394"/>
+      <c r="F1" s="394"/>
+      <c r="G1" s="394"/>
+      <c r="H1" s="394"/>
+      <c r="I1" s="394"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="291"/>
+      <c r="P1" s="291"/>
+      <c r="Q1" s="291"/>
+      <c r="R1" s="263"/>
+      <c r="S1" s="292"/>
+      <c r="T1" s="292"/>
+      <c r="U1" s="292"/>
+      <c r="V1" s="292"/>
+      <c r="W1" s="292"/>
+      <c r="X1" s="292"/>
+      <c r="Y1" s="292"/>
       <c r="Z1" s="250"/>
       <c r="AA1" s="250"/>
     </row>
@@ -12013,32 +12974,33 @@
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="366" t="s">
+      <c r="B2" s="373" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366"/>
-      <c r="F2" s="366" t="s">
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373"/>
+      <c r="F2" s="373" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="366"/>
-      <c r="H2" s="366"/>
-      <c r="I2" s="366"/>
-      <c r="L2" s="279"/>
-      <c r="M2" s="342"/>
-      <c r="N2" s="342"/>
-      <c r="O2" s="342"/>
-      <c r="P2" s="342"/>
-      <c r="Q2" s="342"/>
-      <c r="R2" s="342"/>
-      <c r="S2" s="342"/>
-      <c r="T2" s="342"/>
-      <c r="U2" s="342"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="279"/>
-      <c r="X2" s="279"/>
-      <c r="Y2" s="279"/>
+      <c r="G2" s="373"/>
+      <c r="H2" s="373"/>
+      <c r="I2" s="373"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="293"/>
+      <c r="N2" s="293"/>
+      <c r="O2" s="293"/>
+      <c r="P2" s="293"/>
+      <c r="Q2" s="293"/>
+      <c r="R2" s="293"/>
+      <c r="S2" s="293"/>
+      <c r="T2" s="293"/>
+      <c r="U2" s="293"/>
+      <c r="V2" s="294"/>
+      <c r="W2" s="263"/>
+      <c r="X2" s="263"/>
+      <c r="Y2" s="263"/>
       <c r="Z2" s="116"/>
       <c r="AA2" s="116"/>
     </row>
@@ -12070,21 +13032,21 @@
       <c r="I3" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="264"/>
-      <c r="L3" s="261"/>
-      <c r="M3" s="343"/>
-      <c r="N3" s="344"/>
-      <c r="O3" s="344"/>
-      <c r="P3" s="344"/>
-      <c r="Q3" s="344"/>
-      <c r="R3" s="344"/>
-      <c r="S3" s="344"/>
-      <c r="T3" s="344"/>
-      <c r="U3" s="344"/>
-      <c r="V3" s="264"/>
-      <c r="W3" s="280"/>
-      <c r="X3" s="280"/>
-      <c r="Y3" s="280"/>
+      <c r="K3" s="294"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="295"/>
+      <c r="N3" s="296"/>
+      <c r="O3" s="296"/>
+      <c r="P3" s="296"/>
+      <c r="Q3" s="296"/>
+      <c r="R3" s="296"/>
+      <c r="S3" s="296"/>
+      <c r="T3" s="296"/>
+      <c r="U3" s="296"/>
+      <c r="V3" s="294"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="264"/>
       <c r="Z3" s="116"/>
       <c r="AA3" s="116"/>
     </row>
@@ -12120,21 +13082,21 @@
         <f>SUM(B4:I4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="264"/>
-      <c r="L4" s="308"/>
-      <c r="M4" s="308"/>
-      <c r="N4" s="308"/>
-      <c r="O4" s="308"/>
-      <c r="P4" s="308"/>
-      <c r="Q4" s="308"/>
-      <c r="R4" s="308"/>
-      <c r="S4" s="308"/>
-      <c r="T4" s="308"/>
-      <c r="U4" s="308"/>
-      <c r="V4" s="264"/>
-      <c r="W4" s="281"/>
-      <c r="X4" s="281"/>
-      <c r="Y4" s="281"/>
+      <c r="K4" s="294"/>
+      <c r="L4" s="297"/>
+      <c r="M4" s="297"/>
+      <c r="N4" s="297"/>
+      <c r="O4" s="297"/>
+      <c r="P4" s="297"/>
+      <c r="Q4" s="297"/>
+      <c r="R4" s="297"/>
+      <c r="S4" s="297"/>
+      <c r="T4" s="297"/>
+      <c r="U4" s="297"/>
+      <c r="V4" s="294"/>
+      <c r="W4" s="265"/>
+      <c r="X4" s="265"/>
+      <c r="Y4" s="265"/>
       <c r="Z4" s="116"/>
       <c r="AA4" s="116"/>
     </row>
@@ -12168,21 +13130,21 @@
         <f>SUM(B5:I5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="264"/>
-      <c r="L5" s="309"/>
-      <c r="M5" s="309"/>
-      <c r="N5" s="310"/>
-      <c r="O5" s="310"/>
-      <c r="P5" s="310"/>
-      <c r="Q5" s="310"/>
-      <c r="R5" s="310"/>
-      <c r="S5" s="310"/>
-      <c r="T5" s="310"/>
-      <c r="U5" s="310"/>
-      <c r="V5" s="264"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
+      <c r="K5" s="294"/>
+      <c r="L5" s="298"/>
+      <c r="M5" s="298"/>
+      <c r="N5" s="299"/>
+      <c r="O5" s="299"/>
+      <c r="P5" s="299"/>
+      <c r="Q5" s="299"/>
+      <c r="R5" s="299"/>
+      <c r="S5" s="299"/>
+      <c r="T5" s="299"/>
+      <c r="U5" s="299"/>
+      <c r="V5" s="294"/>
+      <c r="W5" s="294"/>
+      <c r="X5" s="294"/>
+      <c r="Y5" s="294"/>
       <c r="Z5" s="116"/>
       <c r="AA5" s="116"/>
     </row>
@@ -12218,44 +13180,50 @@
         <f>IF(J5=0,0,J5/12/J4)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="264"/>
-      <c r="L6" s="309"/>
-      <c r="M6" s="309"/>
-      <c r="N6" s="310"/>
-      <c r="O6" s="310"/>
-      <c r="P6" s="310"/>
-      <c r="Q6" s="310"/>
-      <c r="R6" s="310"/>
-      <c r="S6" s="310"/>
-      <c r="T6" s="310"/>
-      <c r="U6" s="310"/>
-      <c r="V6" s="264"/>
+      <c r="K6" s="294"/>
+      <c r="L6" s="298"/>
+      <c r="M6" s="298"/>
+      <c r="N6" s="299"/>
+      <c r="O6" s="299"/>
+      <c r="P6" s="299"/>
+      <c r="Q6" s="299"/>
+      <c r="R6" s="299"/>
+      <c r="S6" s="299"/>
+      <c r="T6" s="299"/>
+      <c r="U6" s="299"/>
+      <c r="V6" s="294"/>
+      <c r="W6" s="290"/>
+      <c r="X6" s="290"/>
+      <c r="Y6" s="290"/>
     </row>
     <row r="7" spans="1:27" s="120" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A7" s="370" t="s">
+      <c r="A7" s="377" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="371"/>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
-      <c r="F7" s="371"/>
-      <c r="G7" s="371"/>
-      <c r="H7" s="371"/>
-      <c r="I7" s="372"/>
+      <c r="B7" s="378"/>
+      <c r="C7" s="378"/>
+      <c r="D7" s="378"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="378"/>
+      <c r="G7" s="378"/>
+      <c r="H7" s="378"/>
+      <c r="I7" s="379"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="264"/>
-      <c r="L7" s="264"/>
-      <c r="M7" s="309"/>
-      <c r="N7" s="340"/>
-      <c r="O7" s="310"/>
-      <c r="P7" s="263"/>
-      <c r="Q7" s="264"/>
-      <c r="R7" s="264"/>
-      <c r="S7" s="264"/>
-      <c r="T7" s="264"/>
-      <c r="U7" s="264"/>
-      <c r="V7" s="264"/>
+      <c r="K7" s="294"/>
+      <c r="L7" s="294"/>
+      <c r="M7" s="298"/>
+      <c r="N7" s="300"/>
+      <c r="O7" s="299"/>
+      <c r="P7" s="264"/>
+      <c r="Q7" s="294"/>
+      <c r="R7" s="294"/>
+      <c r="S7" s="294"/>
+      <c r="T7" s="294"/>
+      <c r="U7" s="294"/>
+      <c r="V7" s="294"/>
+      <c r="W7" s="290"/>
+      <c r="X7" s="290"/>
+      <c r="Y7" s="290"/>
     </row>
     <row r="8" spans="1:27" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A8" s="216" t="s">
@@ -12289,18 +13257,21 @@
         <f>SUM(B8:I8)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="264"/>
-      <c r="L8" s="308"/>
-      <c r="M8" s="309"/>
-      <c r="N8" s="340"/>
-      <c r="O8" s="310"/>
-      <c r="P8" s="308"/>
-      <c r="Q8" s="308"/>
-      <c r="R8" s="308"/>
-      <c r="S8" s="308"/>
-      <c r="T8" s="308"/>
-      <c r="U8" s="264"/>
-      <c r="V8" s="264"/>
+      <c r="K8" s="294"/>
+      <c r="L8" s="297"/>
+      <c r="M8" s="298"/>
+      <c r="N8" s="300"/>
+      <c r="O8" s="299"/>
+      <c r="P8" s="297"/>
+      <c r="Q8" s="297"/>
+      <c r="R8" s="297"/>
+      <c r="S8" s="297"/>
+      <c r="T8" s="297"/>
+      <c r="U8" s="294"/>
+      <c r="V8" s="294"/>
+      <c r="W8" s="290"/>
+      <c r="X8" s="290"/>
+      <c r="Y8" s="290"/>
     </row>
     <row r="9" spans="1:27" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A9" s="216" t="s">
@@ -12332,18 +13303,21 @@
         <f>SUM(B9:I9)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="264"/>
-      <c r="L9" s="309"/>
-      <c r="M9" s="310"/>
-      <c r="N9" s="310"/>
-      <c r="O9" s="310"/>
-      <c r="P9" s="310"/>
-      <c r="Q9" s="310"/>
-      <c r="R9" s="310"/>
-      <c r="S9" s="310"/>
-      <c r="T9" s="310"/>
-      <c r="U9" s="264"/>
-      <c r="V9" s="264"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="298"/>
+      <c r="M9" s="299"/>
+      <c r="N9" s="299"/>
+      <c r="O9" s="299"/>
+      <c r="P9" s="299"/>
+      <c r="Q9" s="299"/>
+      <c r="R9" s="299"/>
+      <c r="S9" s="299"/>
+      <c r="T9" s="299"/>
+      <c r="U9" s="294"/>
+      <c r="V9" s="294"/>
+      <c r="W9" s="290"/>
+      <c r="X9" s="290"/>
+      <c r="Y9" s="290"/>
     </row>
     <row r="10" spans="1:27" s="120" customFormat="1" ht="38.25" customHeight="1">
       <c r="A10" s="216" t="s">
@@ -12377,18 +13351,21 @@
         <f>IF(J9=0,0,J9/12/J8)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="264"/>
-      <c r="L10" s="309"/>
-      <c r="M10" s="310"/>
-      <c r="N10" s="310"/>
-      <c r="O10" s="310"/>
-      <c r="P10" s="310"/>
-      <c r="Q10" s="310"/>
-      <c r="R10" s="310"/>
-      <c r="S10" s="310"/>
-      <c r="T10" s="310"/>
-      <c r="U10" s="264"/>
-      <c r="V10" s="264"/>
+      <c r="K10" s="294"/>
+      <c r="L10" s="298"/>
+      <c r="M10" s="299"/>
+      <c r="N10" s="299"/>
+      <c r="O10" s="299"/>
+      <c r="P10" s="299"/>
+      <c r="Q10" s="299"/>
+      <c r="R10" s="299"/>
+      <c r="S10" s="299"/>
+      <c r="T10" s="299"/>
+      <c r="U10" s="294"/>
+      <c r="V10" s="294"/>
+      <c r="W10" s="290"/>
+      <c r="X10" s="290"/>
+      <c r="Y10" s="290"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1">
       <c r="C11" s="248"/>
@@ -12398,16 +13375,21 @@
       <c r="G11" s="248"/>
       <c r="H11" s="248"/>
       <c r="I11" s="248"/>
-      <c r="L11" s="282"/>
-      <c r="M11" s="282"/>
-      <c r="N11" s="334"/>
-      <c r="O11" s="334"/>
-      <c r="P11" s="334"/>
-      <c r="Q11" s="334"/>
-      <c r="R11" s="334"/>
-      <c r="S11" s="334"/>
-      <c r="T11" s="334"/>
-      <c r="U11" s="282"/>
+      <c r="K11" s="301"/>
+      <c r="L11" s="302"/>
+      <c r="M11" s="302"/>
+      <c r="N11" s="303"/>
+      <c r="O11" s="303"/>
+      <c r="P11" s="303"/>
+      <c r="Q11" s="303"/>
+      <c r="R11" s="303"/>
+      <c r="S11" s="303"/>
+      <c r="T11" s="303"/>
+      <c r="U11" s="302"/>
+      <c r="V11" s="301"/>
+      <c r="W11" s="301"/>
+      <c r="X11" s="301"/>
+      <c r="Y11" s="301"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1">
       <c r="C12" s="248"/>
@@ -12417,16 +13399,21 @@
       <c r="G12" s="248"/>
       <c r="H12" s="248"/>
       <c r="I12" s="248"/>
-      <c r="L12" s="282"/>
-      <c r="M12" s="282"/>
-      <c r="N12" s="334"/>
-      <c r="O12" s="334"/>
-      <c r="P12" s="334"/>
-      <c r="Q12" s="334"/>
-      <c r="R12" s="334"/>
-      <c r="S12" s="334"/>
-      <c r="T12" s="334"/>
-      <c r="U12" s="282"/>
+      <c r="K12" s="301"/>
+      <c r="L12" s="302"/>
+      <c r="M12" s="302"/>
+      <c r="N12" s="303"/>
+      <c r="O12" s="303"/>
+      <c r="P12" s="303"/>
+      <c r="Q12" s="303"/>
+      <c r="R12" s="303"/>
+      <c r="S12" s="303"/>
+      <c r="T12" s="303"/>
+      <c r="U12" s="302"/>
+      <c r="V12" s="301"/>
+      <c r="W12" s="301"/>
+      <c r="X12" s="301"/>
+      <c r="Y12" s="301"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1">
       <c r="C13" s="248"/>
@@ -12436,28 +13423,38 @@
       <c r="G13" s="248"/>
       <c r="H13" s="248"/>
       <c r="I13" s="248"/>
-      <c r="L13" s="282"/>
-      <c r="M13" s="282"/>
-      <c r="N13" s="282"/>
-      <c r="O13" s="282"/>
-      <c r="P13" s="282"/>
-      <c r="Q13" s="282"/>
-      <c r="R13" s="282"/>
-      <c r="S13" s="282"/>
-      <c r="T13" s="282"/>
-      <c r="U13" s="282"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="302"/>
+      <c r="M13" s="302"/>
+      <c r="N13" s="302"/>
+      <c r="O13" s="302"/>
+      <c r="P13" s="302"/>
+      <c r="Q13" s="302"/>
+      <c r="R13" s="302"/>
+      <c r="S13" s="302"/>
+      <c r="T13" s="302"/>
+      <c r="U13" s="302"/>
+      <c r="V13" s="301"/>
+      <c r="W13" s="301"/>
+      <c r="X13" s="301"/>
+      <c r="Y13" s="301"/>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1">
-      <c r="L14" s="282"/>
-      <c r="M14" s="282"/>
-      <c r="N14" s="282"/>
-      <c r="O14" s="282"/>
-      <c r="P14" s="282"/>
-      <c r="Q14" s="282"/>
-      <c r="R14" s="282"/>
-      <c r="S14" s="282"/>
-      <c r="T14" s="282"/>
-      <c r="U14" s="282"/>
+      <c r="K14" s="301"/>
+      <c r="L14" s="302"/>
+      <c r="M14" s="302"/>
+      <c r="N14" s="302"/>
+      <c r="O14" s="302"/>
+      <c r="P14" s="302"/>
+      <c r="Q14" s="302"/>
+      <c r="R14" s="302"/>
+      <c r="S14" s="302"/>
+      <c r="T14" s="302"/>
+      <c r="U14" s="302"/>
+      <c r="V14" s="301"/>
+      <c r="W14" s="301"/>
+      <c r="X14" s="301"/>
+      <c r="Y14" s="301"/>
     </row>
     <row r="15" spans="1:27" s="3" customFormat="1" ht="15">
       <c r="A15" s="143" t="s">
@@ -12472,16 +13469,21 @@
       <c r="H15" s="144"/>
       <c r="I15" s="144"/>
       <c r="J15" s="145"/>
-      <c r="L15" s="270"/>
-      <c r="M15" s="270"/>
-      <c r="N15" s="270"/>
-      <c r="O15" s="270"/>
-      <c r="P15" s="270"/>
-      <c r="Q15" s="270"/>
-      <c r="R15" s="270"/>
-      <c r="S15" s="270"/>
-      <c r="T15" s="270"/>
-      <c r="U15" s="270"/>
+      <c r="K15" s="304"/>
+      <c r="L15" s="305"/>
+      <c r="M15" s="305"/>
+      <c r="N15" s="305"/>
+      <c r="O15" s="305"/>
+      <c r="P15" s="305"/>
+      <c r="Q15" s="305"/>
+      <c r="R15" s="305"/>
+      <c r="S15" s="305"/>
+      <c r="T15" s="305"/>
+      <c r="U15" s="305"/>
+      <c r="V15" s="304"/>
+      <c r="W15" s="304"/>
+      <c r="X15" s="304"/>
+      <c r="Y15" s="304"/>
     </row>
     <row r="16" spans="1:27" s="3" customFormat="1" ht="30">
       <c r="A16" s="146" t="s">
@@ -12512,8 +13514,23 @@
         <v>57</v>
       </c>
       <c r="J16" s="148"/>
-    </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="30">
+      <c r="K16" s="304"/>
+      <c r="L16" s="304"/>
+      <c r="M16" s="304"/>
+      <c r="N16" s="304"/>
+      <c r="O16" s="304"/>
+      <c r="P16" s="304"/>
+      <c r="Q16" s="304"/>
+      <c r="R16" s="304"/>
+      <c r="S16" s="304"/>
+      <c r="T16" s="304"/>
+      <c r="U16" s="304"/>
+      <c r="V16" s="304"/>
+      <c r="W16" s="304"/>
+      <c r="X16" s="304"/>
+      <c r="Y16" s="304"/>
+    </row>
+    <row r="17" spans="1:25" s="3" customFormat="1" ht="30">
       <c r="A17" s="149" t="s">
         <v>22</v>
       </c>
@@ -12542,8 +13559,23 @@
         <v>24</v>
       </c>
       <c r="J17" s="151"/>
-    </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="15">
+      <c r="K17" s="304"/>
+      <c r="L17" s="304"/>
+      <c r="M17" s="304"/>
+      <c r="N17" s="304"/>
+      <c r="O17" s="304"/>
+      <c r="P17" s="304"/>
+      <c r="Q17" s="304"/>
+      <c r="R17" s="304"/>
+      <c r="S17" s="304"/>
+      <c r="T17" s="304"/>
+      <c r="U17" s="304"/>
+      <c r="V17" s="304"/>
+      <c r="W17" s="304"/>
+      <c r="X17" s="304"/>
+      <c r="Y17" s="304"/>
+    </row>
+    <row r="18" spans="1:25" s="3" customFormat="1" ht="15">
       <c r="A18" s="6"/>
       <c r="B18" s="152"/>
       <c r="C18" s="152"/>
@@ -12554,8 +13586,23 @@
       <c r="H18" s="152"/>
       <c r="I18" s="152"/>
       <c r="J18" s="152"/>
-    </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="30">
+      <c r="K18" s="304"/>
+      <c r="L18" s="304"/>
+      <c r="M18" s="304"/>
+      <c r="N18" s="304"/>
+      <c r="O18" s="304"/>
+      <c r="P18" s="304"/>
+      <c r="Q18" s="304"/>
+      <c r="R18" s="304"/>
+      <c r="S18" s="304"/>
+      <c r="T18" s="304"/>
+      <c r="U18" s="304"/>
+      <c r="V18" s="304"/>
+      <c r="W18" s="304"/>
+      <c r="X18" s="304"/>
+      <c r="Y18" s="304"/>
+    </row>
+    <row r="19" spans="1:25" s="3" customFormat="1" ht="30">
       <c r="A19" s="153" t="s">
         <v>25</v>
       </c>
@@ -12568,8 +13615,23 @@
       <c r="H19" s="154"/>
       <c r="I19" s="154"/>
       <c r="J19" s="155"/>
-    </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="15">
+      <c r="K19" s="304"/>
+      <c r="L19" s="304"/>
+      <c r="M19" s="304"/>
+      <c r="N19" s="304"/>
+      <c r="O19" s="304"/>
+      <c r="P19" s="304"/>
+      <c r="Q19" s="304"/>
+      <c r="R19" s="304"/>
+      <c r="S19" s="304"/>
+      <c r="T19" s="304"/>
+      <c r="U19" s="304"/>
+      <c r="V19" s="304"/>
+      <c r="W19" s="304"/>
+      <c r="X19" s="304"/>
+      <c r="Y19" s="304"/>
+    </row>
+    <row r="20" spans="1:25" s="3" customFormat="1" ht="15">
       <c r="A20" s="146" t="s">
         <v>26</v>
       </c>
@@ -12599,7 +13661,7 @@
       </c>
       <c r="J20" s="148"/>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="30">
+    <row r="21" spans="1:25" s="3" customFormat="1" ht="30">
       <c r="A21" s="149" t="s">
         <v>30</v>
       </c>
@@ -12629,7 +13691,7 @@
       </c>
       <c r="J21" s="157"/>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="15">
+    <row r="22" spans="1:25" s="3" customFormat="1" ht="15">
       <c r="A22" s="6"/>
       <c r="B22" s="152"/>
       <c r="C22" s="152"/>
@@ -12641,7 +13703,7 @@
       <c r="I22" s="152"/>
       <c r="J22" s="152"/>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="30">
+    <row r="23" spans="1:25" s="3" customFormat="1" ht="30">
       <c r="A23" s="158" t="s">
         <v>33</v>
       </c>
@@ -12655,31 +13717,31 @@
       <c r="I23" s="152"/>
       <c r="J23" s="152"/>
     </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="15"/>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1"/>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+    <row r="24" spans="1:25" s="3" customFormat="1" ht="15"/>
+    <row r="25" spans="1:25" s="3" customFormat="1" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:25" s="3" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
       <c r="A26" s="159" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="388" t="s">
+      <c r="B26" s="395" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="389"/>
-      <c r="D26" s="390" t="s">
+      <c r="C26" s="396"/>
+      <c r="D26" s="397" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="389"/>
-      <c r="F26" s="390" t="s">
+      <c r="E26" s="396"/>
+      <c r="F26" s="397" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="389"/>
-      <c r="H26" s="390" t="s">
+      <c r="G26" s="396"/>
+      <c r="H26" s="397" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="391"/>
+      <c r="I26" s="398"/>
       <c r="J26" s="160"/>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="150">
+    <row r="27" spans="1:25" s="3" customFormat="1" ht="150">
       <c r="A27" s="161" t="s">
         <v>151</v>
       </c>
@@ -12704,7 +13766,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" ht="225">
+    <row r="28" spans="1:25" s="3" customFormat="1" ht="225">
       <c r="A28" s="166" t="s">
         <v>152</v>
       </c>
@@ -12729,7 +13791,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" ht="210">
+    <row r="29" spans="1:25" s="3" customFormat="1" ht="210">
       <c r="A29" s="166" t="s">
         <v>154</v>
       </c>
@@ -12754,7 +13816,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" ht="150">
+    <row r="30" spans="1:25" s="3" customFormat="1" ht="150">
       <c r="A30" s="166" t="s">
         <v>155</v>
       </c>
@@ -12779,7 +13841,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" ht="45">
+    <row r="31" spans="1:25" s="3" customFormat="1" ht="45">
       <c r="A31" s="171" t="s">
         <v>156</v>
       </c>
@@ -12804,7 +13866,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" ht="60">
+    <row r="32" spans="1:25" s="3" customFormat="1" ht="60">
       <c r="A32" s="171" t="s">
         <v>157</v>
       </c>
@@ -12932,22 +13994,22 @@
       <c r="A38" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="B38" s="382" t="s">
+      <c r="B38" s="389" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="383"/>
-      <c r="D38" s="384" t="s">
+      <c r="C38" s="390"/>
+      <c r="D38" s="391" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="383"/>
-      <c r="F38" s="384" t="s">
+      <c r="E38" s="390"/>
+      <c r="F38" s="391" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="383"/>
-      <c r="H38" s="384" t="s">
+      <c r="G38" s="390"/>
+      <c r="H38" s="391" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="385"/>
+      <c r="I38" s="392"/>
       <c r="J38" s="160"/>
     </row>
     <row r="39" spans="1:10" s="3" customFormat="1" ht="15">
@@ -13358,8 +14420,8 @@
   </sheetPr>
   <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="38.25" customHeight="1"/>
@@ -13374,104 +14436,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="6" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="392" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="392"/>
-      <c r="D1" s="392"/>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392"/>
-      <c r="G1" s="392"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
+      <c r="B1" s="399" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
       <c r="M1" s="249"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="250"/>
-      <c r="P1" s="252"/>
-      <c r="Q1" s="252"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="252"/>
-      <c r="T1" s="252"/>
-      <c r="U1" s="252"/>
-      <c r="V1" s="252"/>
-      <c r="W1" s="252"/>
-      <c r="X1" s="252"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="308"/>
+      <c r="Q1" s="308"/>
+      <c r="R1" s="308"/>
+      <c r="S1" s="308"/>
+      <c r="T1" s="308"/>
+      <c r="U1" s="251"/>
+      <c r="V1" s="251"/>
+      <c r="W1" s="251"/>
+      <c r="X1" s="251"/>
     </row>
     <row r="2" spans="1:24" ht="38.25" customHeight="1">
       <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="366" t="s">
+      <c r="B2" s="373" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366" t="s">
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="366"/>
-      <c r="G2" s="366"/>
-      <c r="J2" s="282"/>
-      <c r="K2" s="282"/>
-      <c r="L2" s="282"/>
+      <c r="F2" s="373"/>
+      <c r="G2" s="373"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="302"/>
+      <c r="K2" s="302"/>
+      <c r="L2" s="302"/>
       <c r="M2" s="249"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="252"/>
-      <c r="Q2" s="252"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="252"/>
-      <c r="T2" s="252"/>
-      <c r="U2" s="252"/>
-      <c r="V2" s="252"/>
-      <c r="W2" s="252"/>
-      <c r="X2" s="252"/>
+      <c r="N2" s="302"/>
+      <c r="O2" s="302"/>
+      <c r="P2" s="308"/>
+      <c r="Q2" s="308"/>
+      <c r="R2" s="308"/>
+      <c r="S2" s="308"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="251"/>
+      <c r="V2" s="251"/>
+      <c r="W2" s="251"/>
+      <c r="X2" s="251"/>
     </row>
     <row r="3" spans="1:24" ht="38.25" customHeight="1">
       <c r="A3" s="219" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="245" t="s">
+      <c r="B3" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="245" t="s">
+      <c r="C3" s="288" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="245" t="s">
+      <c r="D3" s="288" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="245" t="s">
+      <c r="E3" s="288" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="245" t="s">
+      <c r="F3" s="288" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="245" t="s">
+      <c r="G3" s="288" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="294"/>
-      <c r="J3" s="294"/>
-      <c r="K3" s="294"/>
-      <c r="L3" s="294"/>
-      <c r="M3" s="294"/>
-      <c r="N3" s="294"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="306"/>
-      <c r="Q3" s="306"/>
-      <c r="R3" s="306"/>
-      <c r="S3" s="306"/>
-      <c r="T3" s="252"/>
-      <c r="U3" s="252"/>
-      <c r="V3" s="252"/>
-      <c r="W3" s="252"/>
-      <c r="X3" s="252"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="309"/>
+      <c r="K3" s="309"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="309"/>
+      <c r="N3" s="309"/>
+      <c r="O3" s="310"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="308"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="308"/>
+      <c r="T3" s="308"/>
+      <c r="U3" s="251"/>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
+      <c r="X3" s="251"/>
     </row>
     <row r="4" spans="1:24" ht="38.25" customHeight="1">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="288" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="11">
@@ -13492,29 +14559,29 @@
       <c r="G4" s="11">
         <v>0</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="311">
         <f>SUM(B4:G4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="361"/>
-      <c r="J4" s="358"/>
-      <c r="K4" s="358"/>
-      <c r="L4" s="358"/>
-      <c r="M4" s="358"/>
-      <c r="N4" s="358"/>
-      <c r="O4" s="358"/>
-      <c r="P4" s="358"/>
-      <c r="Q4" s="320"/>
-      <c r="R4" s="306"/>
-      <c r="S4" s="306"/>
-      <c r="T4" s="252"/>
-      <c r="U4" s="252"/>
-      <c r="V4" s="252"/>
-      <c r="W4" s="252"/>
-      <c r="X4" s="252"/>
+      <c r="I4" s="312"/>
+      <c r="J4" s="313"/>
+      <c r="K4" s="313"/>
+      <c r="L4" s="313"/>
+      <c r="M4" s="313"/>
+      <c r="N4" s="313"/>
+      <c r="O4" s="313"/>
+      <c r="P4" s="313"/>
+      <c r="Q4" s="314"/>
+      <c r="R4" s="308"/>
+      <c r="S4" s="308"/>
+      <c r="T4" s="308"/>
+      <c r="U4" s="251"/>
+      <c r="V4" s="251"/>
+      <c r="W4" s="251"/>
+      <c r="X4" s="251"/>
     </row>
     <row r="5" spans="1:24" ht="38.25" customHeight="1">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="288" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="10">
@@ -13535,29 +14602,29 @@
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="315">
         <f>SUM(B5:G5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="294"/>
-      <c r="J5" s="359"/>
-      <c r="K5" s="360"/>
-      <c r="L5" s="360"/>
-      <c r="M5" s="360"/>
-      <c r="N5" s="360"/>
-      <c r="O5" s="360"/>
-      <c r="P5" s="360"/>
-      <c r="Q5" s="337"/>
-      <c r="R5" s="306"/>
-      <c r="S5" s="306"/>
-      <c r="T5" s="252"/>
-      <c r="U5" s="252"/>
-      <c r="V5" s="252"/>
-      <c r="W5" s="252"/>
-      <c r="X5" s="252"/>
+      <c r="I5" s="309"/>
+      <c r="J5" s="316"/>
+      <c r="K5" s="317"/>
+      <c r="L5" s="317"/>
+      <c r="M5" s="317"/>
+      <c r="N5" s="317"/>
+      <c r="O5" s="317"/>
+      <c r="P5" s="317"/>
+      <c r="Q5" s="318"/>
+      <c r="R5" s="308"/>
+      <c r="S5" s="308"/>
+      <c r="T5" s="308"/>
+      <c r="U5" s="251"/>
+      <c r="V5" s="251"/>
+      <c r="W5" s="251"/>
+      <c r="X5" s="251"/>
     </row>
     <row r="6" spans="1:24" ht="38.25" customHeight="1">
-      <c r="A6" s="245" t="s">
+      <c r="A6" s="288" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="10">
@@ -13578,54 +14645,54 @@
       <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="12" t="e">
+      <c r="H6" s="315" t="e">
         <f>H5/12/H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="294"/>
-      <c r="J6" s="359"/>
-      <c r="K6" s="360"/>
-      <c r="L6" s="360"/>
-      <c r="M6" s="360"/>
-      <c r="N6" s="360"/>
-      <c r="O6" s="360"/>
-      <c r="P6" s="360"/>
-      <c r="Q6" s="337"/>
-      <c r="R6" s="306"/>
-      <c r="S6" s="306"/>
-      <c r="T6" s="252"/>
-      <c r="U6" s="252"/>
-      <c r="V6" s="252"/>
-      <c r="W6" s="252"/>
-      <c r="X6" s="252"/>
+      <c r="I6" s="309"/>
+      <c r="J6" s="316"/>
+      <c r="K6" s="317"/>
+      <c r="L6" s="317"/>
+      <c r="M6" s="317"/>
+      <c r="N6" s="317"/>
+      <c r="O6" s="317"/>
+      <c r="P6" s="317"/>
+      <c r="Q6" s="318"/>
+      <c r="R6" s="308"/>
+      <c r="S6" s="308"/>
+      <c r="T6" s="308"/>
+      <c r="U6" s="251"/>
+      <c r="V6" s="251"/>
+      <c r="W6" s="251"/>
+      <c r="X6" s="251"/>
     </row>
     <row r="7" spans="1:24" ht="38.25" customHeight="1">
-      <c r="A7" s="370" t="s">
+      <c r="A7" s="377" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="371"/>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
-      <c r="F7" s="371"/>
-      <c r="G7" s="372"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="294"/>
-      <c r="J7" s="320"/>
-      <c r="K7" s="320"/>
-      <c r="L7" s="320"/>
-      <c r="M7" s="320"/>
-      <c r="N7" s="320"/>
-      <c r="O7" s="320"/>
-      <c r="P7" s="320"/>
-      <c r="Q7" s="327"/>
-      <c r="R7" s="306"/>
-      <c r="S7" s="306"/>
-      <c r="T7" s="252"/>
-      <c r="U7" s="252"/>
-      <c r="V7" s="252"/>
-      <c r="W7" s="252"/>
-      <c r="X7" s="252"/>
+      <c r="B7" s="378"/>
+      <c r="C7" s="378"/>
+      <c r="D7" s="378"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="378"/>
+      <c r="G7" s="379"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="309"/>
+      <c r="J7" s="314"/>
+      <c r="K7" s="314"/>
+      <c r="L7" s="314"/>
+      <c r="M7" s="314"/>
+      <c r="N7" s="314"/>
+      <c r="O7" s="314"/>
+      <c r="P7" s="314"/>
+      <c r="Q7" s="319"/>
+      <c r="R7" s="308"/>
+      <c r="S7" s="308"/>
+      <c r="T7" s="308"/>
+      <c r="U7" s="251"/>
+      <c r="V7" s="251"/>
+      <c r="W7" s="251"/>
+      <c r="X7" s="251"/>
     </row>
     <row r="8" spans="1:24" ht="38.25" customHeight="1">
       <c r="A8" s="216" t="s">
@@ -13649,26 +14716,26 @@
       <c r="G8" s="11">
         <v>0</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="311">
         <f>SUM(B8:G8)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="294"/>
-      <c r="J8" s="321"/>
-      <c r="K8" s="338"/>
-      <c r="L8" s="338"/>
-      <c r="M8" s="338"/>
-      <c r="N8" s="338"/>
-      <c r="O8" s="338"/>
-      <c r="P8" s="338"/>
-      <c r="Q8" s="327"/>
-      <c r="R8" s="306"/>
-      <c r="S8" s="306"/>
-      <c r="T8" s="252"/>
-      <c r="U8" s="252"/>
-      <c r="V8" s="252"/>
-      <c r="W8" s="252"/>
-      <c r="X8" s="252"/>
+      <c r="I8" s="309"/>
+      <c r="J8" s="320"/>
+      <c r="K8" s="321"/>
+      <c r="L8" s="321"/>
+      <c r="M8" s="321"/>
+      <c r="N8" s="321"/>
+      <c r="O8" s="321"/>
+      <c r="P8" s="321"/>
+      <c r="Q8" s="319"/>
+      <c r="R8" s="308"/>
+      <c r="S8" s="308"/>
+      <c r="T8" s="308"/>
+      <c r="U8" s="251"/>
+      <c r="V8" s="251"/>
+      <c r="W8" s="251"/>
+      <c r="X8" s="251"/>
     </row>
     <row r="9" spans="1:24" ht="38.25" customHeight="1">
       <c r="A9" s="216" t="s">
@@ -13692,26 +14759,26 @@
       <c r="G9" s="10">
         <v>0</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="315">
         <f>SUM(B9:G9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="294"/>
-      <c r="J9" s="321"/>
-      <c r="K9" s="338"/>
-      <c r="L9" s="338"/>
-      <c r="M9" s="338"/>
-      <c r="N9" s="338"/>
-      <c r="O9" s="338"/>
-      <c r="P9" s="338"/>
-      <c r="Q9" s="306"/>
-      <c r="R9" s="306"/>
-      <c r="S9" s="306"/>
-      <c r="T9" s="252"/>
-      <c r="U9" s="252"/>
-      <c r="V9" s="252"/>
-      <c r="W9" s="252"/>
-      <c r="X9" s="252"/>
+      <c r="I9" s="309"/>
+      <c r="J9" s="320"/>
+      <c r="K9" s="321"/>
+      <c r="L9" s="321"/>
+      <c r="M9" s="321"/>
+      <c r="N9" s="321"/>
+      <c r="O9" s="321"/>
+      <c r="P9" s="321"/>
+      <c r="Q9" s="308"/>
+      <c r="R9" s="308"/>
+      <c r="S9" s="308"/>
+      <c r="T9" s="308"/>
+      <c r="U9" s="251"/>
+      <c r="V9" s="251"/>
+      <c r="W9" s="251"/>
+      <c r="X9" s="251"/>
     </row>
     <row r="10" spans="1:24" ht="38.25" customHeight="1">
       <c r="A10" s="216" t="s">
@@ -13735,73 +14802,101 @@
       <c r="G10" s="10">
         <v>0</v>
       </c>
-      <c r="H10" s="12" t="e">
+      <c r="H10" s="315" t="e">
         <f>H9/12/H8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="294"/>
-      <c r="J10" s="326"/>
-      <c r="K10" s="336"/>
-      <c r="L10" s="336"/>
-      <c r="M10" s="336"/>
-      <c r="N10" s="336"/>
-      <c r="O10" s="336"/>
-      <c r="P10" s="336"/>
-      <c r="Q10" s="282"/>
-      <c r="R10" s="282"/>
-      <c r="S10" s="282"/>
+      <c r="I10" s="309"/>
+      <c r="J10" s="322"/>
+      <c r="K10" s="323"/>
+      <c r="L10" s="323"/>
+      <c r="M10" s="323"/>
+      <c r="N10" s="323"/>
+      <c r="O10" s="323"/>
+      <c r="P10" s="323"/>
+      <c r="Q10" s="302"/>
+      <c r="R10" s="302"/>
+      <c r="S10" s="302"/>
+      <c r="T10" s="301"/>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1">
-      <c r="B11" s="301"/>
-      <c r="C11" s="301"/>
-      <c r="D11" s="301"/>
-      <c r="E11" s="301"/>
-      <c r="F11" s="301"/>
-      <c r="G11" s="301"/>
-      <c r="H11" s="302"/>
-      <c r="I11" s="282"/>
-      <c r="J11" s="282"/>
-      <c r="K11" s="336"/>
-      <c r="L11" s="336"/>
-      <c r="M11" s="336"/>
-      <c r="N11" s="336"/>
-      <c r="O11" s="336"/>
-      <c r="P11" s="336"/>
-      <c r="Q11" s="282"/>
+      <c r="B11" s="277"/>
+      <c r="C11" s="277"/>
+      <c r="D11" s="277"/>
+      <c r="E11" s="277"/>
+      <c r="F11" s="277"/>
+      <c r="G11" s="277"/>
+      <c r="H11" s="324"/>
+      <c r="I11" s="302"/>
+      <c r="J11" s="302"/>
+      <c r="K11" s="323"/>
+      <c r="L11" s="323"/>
+      <c r="M11" s="323"/>
+      <c r="N11" s="323"/>
+      <c r="O11" s="323"/>
+      <c r="P11" s="323"/>
+      <c r="Q11" s="302"/>
+      <c r="R11" s="301"/>
+      <c r="S11" s="301"/>
+      <c r="T11" s="301"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1">
-      <c r="B12" s="301"/>
-      <c r="C12" s="301"/>
-      <c r="D12" s="301"/>
-      <c r="E12" s="301"/>
-      <c r="F12" s="301"/>
-      <c r="G12" s="301"/>
-      <c r="H12" s="302"/>
-      <c r="K12" s="328"/>
-      <c r="L12" s="328"/>
-      <c r="M12" s="328"/>
-      <c r="N12" s="328"/>
-      <c r="O12" s="328"/>
-      <c r="P12" s="328"/>
-      <c r="Q12" s="21"/>
+      <c r="B12" s="277"/>
+      <c r="C12" s="277"/>
+      <c r="D12" s="277"/>
+      <c r="E12" s="277"/>
+      <c r="F12" s="277"/>
+      <c r="G12" s="277"/>
+      <c r="H12" s="324"/>
+      <c r="I12" s="301"/>
+      <c r="J12" s="301"/>
+      <c r="K12" s="325"/>
+      <c r="L12" s="325"/>
+      <c r="M12" s="325"/>
+      <c r="N12" s="325"/>
+      <c r="O12" s="325"/>
+      <c r="P12" s="325"/>
+      <c r="Q12" s="302"/>
+      <c r="R12" s="301"/>
+      <c r="S12" s="301"/>
+      <c r="T12" s="301"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1">
-      <c r="B13" s="301"/>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="302"/>
-      <c r="K13" s="328"/>
-      <c r="L13" s="328"/>
-      <c r="M13" s="328"/>
-      <c r="N13" s="328"/>
-      <c r="O13" s="328"/>
-      <c r="P13" s="328"/>
-      <c r="Q13" s="21"/>
-    </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1"/>
+      <c r="B13" s="277"/>
+      <c r="C13" s="277"/>
+      <c r="D13" s="277"/>
+      <c r="E13" s="277"/>
+      <c r="F13" s="277"/>
+      <c r="G13" s="277"/>
+      <c r="H13" s="324"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="325"/>
+      <c r="L13" s="325"/>
+      <c r="M13" s="325"/>
+      <c r="N13" s="325"/>
+      <c r="O13" s="325"/>
+      <c r="P13" s="325"/>
+      <c r="Q13" s="302"/>
+      <c r="R13" s="301"/>
+      <c r="S13" s="301"/>
+      <c r="T13" s="301"/>
+    </row>
+    <row r="14" spans="1:24" ht="15" customHeight="1">
+      <c r="H14" s="301"/>
+      <c r="I14" s="301"/>
+      <c r="J14" s="301"/>
+      <c r="K14" s="301"/>
+      <c r="L14" s="301"/>
+      <c r="M14" s="301"/>
+      <c r="N14" s="301"/>
+      <c r="O14" s="301"/>
+      <c r="P14" s="301"/>
+      <c r="Q14" s="301"/>
+      <c r="R14" s="301"/>
+      <c r="S14" s="301"/>
+      <c r="T14" s="301"/>
+    </row>
     <row r="15" spans="1:24" s="3" customFormat="1" ht="15">
       <c r="A15" s="16" t="s">
         <v>17</v>
@@ -13815,6 +14910,16 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
+      <c r="K15" s="304"/>
+      <c r="L15" s="304"/>
+      <c r="M15" s="304"/>
+      <c r="N15" s="304"/>
+      <c r="O15" s="304"/>
+      <c r="P15" s="304"/>
+      <c r="Q15" s="304"/>
+      <c r="R15" s="304"/>
+      <c r="S15" s="304"/>
+      <c r="T15" s="304"/>
     </row>
     <row r="16" spans="1:24" s="3" customFormat="1" ht="15">
       <c r="A16" s="19" t="s">
@@ -13870,15 +14975,15 @@
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" ht="15">
       <c r="A18" s="27"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
+      <c r="B18" s="260"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="260"/>
+      <c r="E18" s="260"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="260"/>
+      <c r="H18" s="260"/>
+      <c r="I18" s="260"/>
+      <c r="J18" s="260"/>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" ht="15">
       <c r="A19" s="28" t="s">
@@ -13948,29 +15053,29 @@
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" ht="15">
       <c r="A22" s="27"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
+      <c r="B22" s="260"/>
+      <c r="C22" s="260"/>
+      <c r="D22" s="260"/>
+      <c r="E22" s="260"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="260"/>
+      <c r="H22" s="260"/>
+      <c r="I22" s="260"/>
+      <c r="J22" s="260"/>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="A23" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
+      <c r="B23" s="260"/>
+      <c r="C23" s="260"/>
+      <c r="D23" s="260"/>
+      <c r="E23" s="260"/>
+      <c r="F23" s="260"/>
+      <c r="G23" s="260"/>
+      <c r="H23" s="260"/>
+      <c r="I23" s="260"/>
+      <c r="J23" s="260"/>
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="A24" s="34" t="s">
@@ -14096,19 +15201,19 @@
     </row>
     <row r="34" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="A34" s="45"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
+      <c r="B34" s="260"/>
+      <c r="C34" s="260"/>
+      <c r="D34" s="260"/>
     </row>
     <row r="35" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A35" s="246" t="s">
+      <c r="A35" s="287" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="364" t="s">
+      <c r="B35" s="371" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="364"/>
-      <c r="D35" s="365"/>
+      <c r="C35" s="371"/>
+      <c r="D35" s="372"/>
     </row>
     <row r="36" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="A36" s="46" t="s">
@@ -14226,11 +15331,11 @@
       <c r="A44" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="364" t="s">
+      <c r="B44" s="371" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="364"/>
-      <c r="D44" s="365"/>
+      <c r="C44" s="371"/>
+      <c r="D44" s="372"/>
     </row>
     <row r="45" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="A45" s="46" t="s">
@@ -14348,11 +15453,11 @@
       <c r="A53" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="364" t="s">
+      <c r="B53" s="371" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="364"/>
-      <c r="D53" s="365"/>
+      <c r="C53" s="371"/>
+      <c r="D53" s="372"/>
     </row>
     <row r="54" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="A54" s="46" t="s">
@@ -14470,11 +15575,11 @@
       <c r="A62" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="364" t="s">
+      <c r="B62" s="371" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="364"/>
-      <c r="D62" s="365"/>
+      <c r="C62" s="371"/>
+      <c r="D62" s="372"/>
     </row>
     <row r="63" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="A63" s="46" t="s">
@@ -14609,108 +15714,127 @@
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:X70"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="37.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="38.25" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="16.140625" style="3"/>
-    <col min="5" max="5" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="16.140625" style="3"/>
-    <col min="10" max="10" width="23.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="16.140625" style="3"/>
+    <col min="1" max="10" width="19.28515625" style="1"/>
+    <col min="11" max="11" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="19.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A1" s="257" t="s">
+    <row r="1" spans="1:24" s="6" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A1" s="244" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="396" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="397"/>
-      <c r="I1" s="397"/>
-      <c r="M1" s="284"/>
-      <c r="N1" s="284"/>
-      <c r="O1" s="284"/>
-    </row>
-    <row r="2" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="399" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+      <c r="P1" s="308"/>
+      <c r="Q1" s="308"/>
+      <c r="R1" s="308"/>
+      <c r="S1" s="308"/>
+      <c r="T1" s="308"/>
+      <c r="U1" s="251"/>
+      <c r="V1" s="251"/>
+      <c r="W1" s="251"/>
+      <c r="X1" s="251"/>
+    </row>
+    <row r="2" spans="1:24" ht="38.25" customHeight="1">
+      <c r="A2" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="398"/>
-      <c r="D2" s="398"/>
-      <c r="E2" s="398"/>
-      <c r="F2" s="398" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="398"/>
-      <c r="H2" s="398"/>
-      <c r="I2" s="398"/>
-      <c r="L2" s="270"/>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="270"/>
-      <c r="Q2" s="270"/>
-      <c r="R2" s="270"/>
-      <c r="S2" s="270"/>
-    </row>
-    <row r="3" spans="1:22" ht="37.5" customHeight="1">
+      <c r="B2" s="373" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="373"/>
+      <c r="G2" s="373"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="302"/>
+      <c r="K2" s="302"/>
+      <c r="L2" s="302"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="302"/>
+      <c r="O2" s="302"/>
+      <c r="P2" s="308"/>
+      <c r="Q2" s="308"/>
+      <c r="R2" s="308"/>
+      <c r="S2" s="308"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="251"/>
+      <c r="V2" s="251"/>
+      <c r="W2" s="251"/>
+      <c r="X2" s="251"/>
+    </row>
+    <row r="3" spans="1:24" ht="38.25" customHeight="1">
       <c r="A3" s="219" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="259" t="s">
+      <c r="B3" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="259" t="s">
+      <c r="C3" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="259" t="s">
+      <c r="D3" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="259" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="259" t="s">
+      <c r="E3" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="259" t="s">
+      <c r="F3" s="245" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="259" t="s">
+      <c r="G3" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="259" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="270"/>
-      <c r="L3" s="345"/>
-      <c r="M3" s="345"/>
-      <c r="N3" s="345"/>
-      <c r="O3" s="345"/>
-      <c r="P3" s="345"/>
-      <c r="Q3" s="345"/>
-      <c r="R3" s="345"/>
-      <c r="S3" s="345"/>
-      <c r="T3" s="345"/>
-      <c r="U3" s="270"/>
-      <c r="V3" s="270"/>
-    </row>
-    <row r="4" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A4" s="259" t="s">
+      <c r="H3" s="301"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="309"/>
+      <c r="K3" s="309"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="309"/>
+      <c r="N3" s="309"/>
+      <c r="O3" s="310"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="308"/>
+      <c r="R3" s="308"/>
+      <c r="S3" s="308"/>
+      <c r="T3" s="308"/>
+      <c r="U3" s="251"/>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
+      <c r="X3" s="251"/>
+    </row>
+    <row r="4" spans="1:24" ht="38.25" customHeight="1">
+      <c r="A4" s="245" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="11">
@@ -14731,147 +15855,143 @@
       <c r="G4" s="11">
         <v>0</v>
       </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <f>SUM(B4:I4)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="270"/>
-      <c r="L4" s="355"/>
-      <c r="M4" s="355"/>
-      <c r="N4" s="355"/>
-      <c r="O4" s="355"/>
-      <c r="P4" s="355"/>
-      <c r="Q4" s="355"/>
-      <c r="R4" s="355"/>
-      <c r="S4" s="355"/>
-      <c r="T4" s="355"/>
-      <c r="U4" s="270"/>
-      <c r="V4" s="270"/>
-    </row>
-    <row r="5" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A5" s="259" t="s">
+      <c r="H4" s="311">
+        <f>SUM(B4:G4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="312"/>
+      <c r="J4" s="313"/>
+      <c r="K4" s="313"/>
+      <c r="L4" s="313"/>
+      <c r="M4" s="313"/>
+      <c r="N4" s="313"/>
+      <c r="O4" s="313"/>
+      <c r="P4" s="313"/>
+      <c r="Q4" s="314"/>
+      <c r="R4" s="308"/>
+      <c r="S4" s="308"/>
+      <c r="T4" s="308"/>
+      <c r="U4" s="251"/>
+      <c r="V4" s="251"/>
+      <c r="W4" s="251"/>
+      <c r="X4" s="251"/>
+    </row>
+    <row r="5" spans="1:24" ht="38.25" customHeight="1">
+      <c r="A5" s="245" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="237">
-        <v>0</v>
-      </c>
-      <c r="C5" s="237">
-        <v>0</v>
-      </c>
-      <c r="D5" s="237">
-        <v>0</v>
-      </c>
-      <c r="E5" s="237">
-        <v>0</v>
-      </c>
-      <c r="F5" s="237">
-        <v>0</v>
-      </c>
-      <c r="G5" s="237">
-        <v>0</v>
-      </c>
-      <c r="H5" s="237">
-        <v>0</v>
-      </c>
-      <c r="I5" s="237">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <f>SUM(B5:I5)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="270"/>
-      <c r="L5" s="356"/>
-      <c r="M5" s="357"/>
-      <c r="N5" s="357"/>
-      <c r="O5" s="357"/>
-      <c r="P5" s="357"/>
-      <c r="Q5" s="357"/>
-      <c r="R5" s="357"/>
-      <c r="S5" s="357"/>
-      <c r="T5" s="357"/>
-      <c r="U5" s="270"/>
-      <c r="V5" s="270"/>
-    </row>
-    <row r="6" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A6" s="259" t="s">
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="315">
+        <f>SUM(B5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="309"/>
+      <c r="J5" s="316"/>
+      <c r="K5" s="317"/>
+      <c r="L5" s="317"/>
+      <c r="M5" s="317"/>
+      <c r="N5" s="317"/>
+      <c r="O5" s="317"/>
+      <c r="P5" s="317"/>
+      <c r="Q5" s="318"/>
+      <c r="R5" s="308"/>
+      <c r="S5" s="308"/>
+      <c r="T5" s="308"/>
+      <c r="U5" s="251"/>
+      <c r="V5" s="251"/>
+      <c r="W5" s="251"/>
+      <c r="X5" s="251"/>
+    </row>
+    <row r="6" spans="1:24" ht="38.25" customHeight="1">
+      <c r="A6" s="245" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="237">
-        <v>0</v>
-      </c>
-      <c r="C6" s="237">
-        <v>0</v>
-      </c>
-      <c r="D6" s="237">
-        <v>0</v>
-      </c>
-      <c r="E6" s="237">
-        <v>0</v>
-      </c>
-      <c r="F6" s="237">
-        <v>0</v>
-      </c>
-      <c r="G6" s="237">
-        <v>0</v>
-      </c>
-      <c r="H6" s="237">
-        <v>0</v>
-      </c>
-      <c r="I6" s="237">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9" t="e">
-        <f>J5/12/J4</f>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="315" t="e">
+        <f>H5/12/H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="270"/>
-      <c r="L6" s="356"/>
-      <c r="M6" s="357"/>
-      <c r="N6" s="357"/>
-      <c r="O6" s="357"/>
-      <c r="P6" s="357"/>
-      <c r="Q6" s="357"/>
-      <c r="R6" s="357"/>
-      <c r="S6" s="357"/>
-      <c r="T6" s="357"/>
-      <c r="U6" s="270"/>
-      <c r="V6" s="270"/>
-    </row>
-    <row r="7" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A7" s="399" t="s">
+      <c r="I6" s="309"/>
+      <c r="J6" s="316"/>
+      <c r="K6" s="317"/>
+      <c r="L6" s="317"/>
+      <c r="M6" s="317"/>
+      <c r="N6" s="317"/>
+      <c r="O6" s="317"/>
+      <c r="P6" s="317"/>
+      <c r="Q6" s="318"/>
+      <c r="R6" s="308"/>
+      <c r="S6" s="308"/>
+      <c r="T6" s="308"/>
+      <c r="U6" s="251"/>
+      <c r="V6" s="251"/>
+      <c r="W6" s="251"/>
+      <c r="X6" s="251"/>
+    </row>
+    <row r="7" spans="1:24" ht="38.25" customHeight="1">
+      <c r="A7" s="377" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="400"/>
-      <c r="C7" s="400"/>
-      <c r="D7" s="400"/>
-      <c r="E7" s="400"/>
-      <c r="F7" s="400"/>
-      <c r="G7" s="400"/>
-      <c r="H7" s="400"/>
-      <c r="I7" s="401"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="270"/>
-      <c r="L7" s="317"/>
-      <c r="M7" s="317"/>
-      <c r="N7" s="317"/>
-      <c r="O7" s="317"/>
-      <c r="P7" s="317"/>
-      <c r="Q7" s="317"/>
-      <c r="R7" s="317"/>
-      <c r="S7" s="317"/>
-      <c r="T7" s="317"/>
-      <c r="U7" s="270"/>
-      <c r="V7" s="270"/>
-    </row>
-    <row r="8" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A8" s="214" t="s">
+      <c r="B7" s="378"/>
+      <c r="C7" s="378"/>
+      <c r="D7" s="378"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="378"/>
+      <c r="G7" s="379"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="309"/>
+      <c r="J7" s="314"/>
+      <c r="K7" s="314"/>
+      <c r="L7" s="314"/>
+      <c r="M7" s="314"/>
+      <c r="N7" s="314"/>
+      <c r="O7" s="314"/>
+      <c r="P7" s="314"/>
+      <c r="Q7" s="319"/>
+      <c r="R7" s="308"/>
+      <c r="S7" s="308"/>
+      <c r="T7" s="308"/>
+      <c r="U7" s="251"/>
+      <c r="V7" s="251"/>
+      <c r="W7" s="251"/>
+      <c r="X7" s="251"/>
+    </row>
+    <row r="8" spans="1:24" ht="38.25" customHeight="1">
+      <c r="A8" s="216" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="11">
@@ -14892,163 +16012,188 @@
       <c r="G8" s="11">
         <v>0</v>
       </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <f>SUM(B8:I8)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="270"/>
-      <c r="L8" s="318"/>
-      <c r="M8" s="319"/>
-      <c r="N8" s="319"/>
-      <c r="O8" s="319"/>
-      <c r="P8" s="319"/>
+      <c r="H8" s="311">
+        <f>SUM(B8:G8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="309"/>
+      <c r="J8" s="320"/>
+      <c r="K8" s="321"/>
+      <c r="L8" s="321"/>
+      <c r="M8" s="321"/>
+      <c r="N8" s="321"/>
+      <c r="O8" s="321"/>
+      <c r="P8" s="321"/>
       <c r="Q8" s="319"/>
-      <c r="R8" s="319"/>
-      <c r="S8" s="319"/>
-      <c r="T8" s="319"/>
-      <c r="U8" s="270"/>
-      <c r="V8" s="270"/>
-    </row>
-    <row r="9" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A9" s="214" t="s">
+      <c r="R8" s="308"/>
+      <c r="S8" s="308"/>
+      <c r="T8" s="308"/>
+      <c r="U8" s="251"/>
+      <c r="V8" s="251"/>
+      <c r="W8" s="251"/>
+      <c r="X8" s="251"/>
+    </row>
+    <row r="9" spans="1:24" ht="38.25" customHeight="1">
+      <c r="A9" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="237">
-        <v>0</v>
-      </c>
-      <c r="C9" s="237">
-        <v>0</v>
-      </c>
-      <c r="D9" s="237">
-        <v>0</v>
-      </c>
-      <c r="E9" s="237">
-        <v>0</v>
-      </c>
-      <c r="F9" s="237">
-        <v>0</v>
-      </c>
-      <c r="G9" s="237">
-        <v>0</v>
-      </c>
-      <c r="H9" s="237">
-        <v>0</v>
-      </c>
-      <c r="I9" s="237">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <f>SUM(B9:I9)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="270"/>
-      <c r="L9" s="318"/>
-      <c r="M9" s="319"/>
-      <c r="N9" s="319"/>
-      <c r="O9" s="319"/>
-      <c r="P9" s="319"/>
-      <c r="Q9" s="319"/>
-      <c r="R9" s="319"/>
-      <c r="S9" s="319"/>
-      <c r="T9" s="319"/>
-      <c r="U9" s="270"/>
-      <c r="V9" s="270"/>
-    </row>
-    <row r="10" spans="1:22" ht="37.5" customHeight="1">
-      <c r="A10" s="214" t="s">
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="315">
+        <f>SUM(B9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="309"/>
+      <c r="J9" s="320"/>
+      <c r="K9" s="321"/>
+      <c r="L9" s="321"/>
+      <c r="M9" s="321"/>
+      <c r="N9" s="321"/>
+      <c r="O9" s="321"/>
+      <c r="P9" s="321"/>
+      <c r="Q9" s="308"/>
+      <c r="R9" s="308"/>
+      <c r="S9" s="308"/>
+      <c r="T9" s="308"/>
+      <c r="U9" s="251"/>
+      <c r="V9" s="251"/>
+      <c r="W9" s="251"/>
+      <c r="X9" s="251"/>
+    </row>
+    <row r="10" spans="1:24" ht="38.25" customHeight="1">
+      <c r="A10" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="237">
-        <v>0</v>
-      </c>
-      <c r="C10" s="237">
-        <v>0</v>
-      </c>
-      <c r="D10" s="237">
-        <v>0</v>
-      </c>
-      <c r="E10" s="237">
-        <v>0</v>
-      </c>
-      <c r="F10" s="237">
-        <v>0</v>
-      </c>
-      <c r="G10" s="237">
-        <v>0</v>
-      </c>
-      <c r="H10" s="237">
-        <v>0</v>
-      </c>
-      <c r="I10" s="237">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9" t="e">
-        <f>J9/12/J8</f>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="315" t="e">
+        <f>H9/12/H8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="270"/>
-      <c r="L10" s="270"/>
-      <c r="M10" s="335"/>
-      <c r="N10" s="335"/>
-      <c r="O10" s="335"/>
-      <c r="P10" s="335"/>
-      <c r="Q10" s="335"/>
-      <c r="R10" s="335"/>
-      <c r="S10" s="335"/>
-      <c r="T10" s="335"/>
-      <c r="U10" s="270"/>
-      <c r="V10" s="270"/>
-    </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1">
-      <c r="B11" s="283"/>
-      <c r="C11" s="283"/>
-      <c r="D11" s="283"/>
-      <c r="E11" s="283"/>
-      <c r="F11" s="283"/>
-      <c r="G11" s="283"/>
-      <c r="H11" s="283"/>
-      <c r="I11" s="283"/>
-      <c r="K11" s="270"/>
-      <c r="L11" s="270"/>
-      <c r="M11" s="335"/>
-      <c r="N11" s="335"/>
-      <c r="O11" s="335"/>
-      <c r="P11" s="335"/>
-      <c r="Q11" s="335"/>
-      <c r="R11" s="335"/>
-      <c r="S11" s="335"/>
-      <c r="T11" s="335"/>
-      <c r="U11" s="270"/>
-      <c r="V11" s="270"/>
-    </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1">
-      <c r="B12" s="283"/>
-      <c r="C12" s="283"/>
-      <c r="D12" s="283"/>
-      <c r="E12" s="283"/>
-      <c r="F12" s="283"/>
-      <c r="G12" s="283"/>
-      <c r="H12" s="283"/>
-      <c r="I12" s="283"/>
-    </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1">
-      <c r="B13" s="283"/>
-      <c r="C13" s="283"/>
-      <c r="D13" s="283"/>
-      <c r="E13" s="283"/>
-      <c r="F13" s="283"/>
-      <c r="G13" s="283"/>
-      <c r="H13" s="283"/>
-      <c r="I13" s="283"/>
-    </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1"/>
-    <row r="15" spans="1:22" ht="15">
+      <c r="I10" s="309"/>
+      <c r="J10" s="322"/>
+      <c r="K10" s="323"/>
+      <c r="L10" s="323"/>
+      <c r="M10" s="323"/>
+      <c r="N10" s="323"/>
+      <c r="O10" s="323"/>
+      <c r="P10" s="323"/>
+      <c r="Q10" s="302"/>
+      <c r="R10" s="302"/>
+      <c r="S10" s="302"/>
+      <c r="T10" s="301"/>
+    </row>
+    <row r="11" spans="1:24" ht="15" customHeight="1">
+      <c r="B11" s="277"/>
+      <c r="C11" s="277"/>
+      <c r="D11" s="277"/>
+      <c r="E11" s="277"/>
+      <c r="F11" s="277"/>
+      <c r="G11" s="277"/>
+      <c r="H11" s="324"/>
+      <c r="I11" s="302"/>
+      <c r="J11" s="302"/>
+      <c r="K11" s="323"/>
+      <c r="L11" s="323"/>
+      <c r="M11" s="323"/>
+      <c r="N11" s="323"/>
+      <c r="O11" s="323"/>
+      <c r="P11" s="323"/>
+      <c r="Q11" s="302"/>
+      <c r="R11" s="301"/>
+      <c r="S11" s="301"/>
+      <c r="T11" s="301"/>
+    </row>
+    <row r="12" spans="1:24" ht="15" customHeight="1">
+      <c r="B12" s="277"/>
+      <c r="C12" s="277"/>
+      <c r="D12" s="277"/>
+      <c r="E12" s="277"/>
+      <c r="F12" s="277"/>
+      <c r="G12" s="277"/>
+      <c r="H12" s="324"/>
+      <c r="I12" s="301"/>
+      <c r="J12" s="301"/>
+      <c r="K12" s="325"/>
+      <c r="L12" s="325"/>
+      <c r="M12" s="325"/>
+      <c r="N12" s="325"/>
+      <c r="O12" s="325"/>
+      <c r="P12" s="325"/>
+      <c r="Q12" s="302"/>
+      <c r="R12" s="301"/>
+      <c r="S12" s="301"/>
+      <c r="T12" s="301"/>
+    </row>
+    <row r="13" spans="1:24" ht="15" customHeight="1">
+      <c r="B13" s="277"/>
+      <c r="C13" s="277"/>
+      <c r="D13" s="277"/>
+      <c r="E13" s="277"/>
+      <c r="F13" s="277"/>
+      <c r="G13" s="277"/>
+      <c r="H13" s="324"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="325"/>
+      <c r="L13" s="325"/>
+      <c r="M13" s="325"/>
+      <c r="N13" s="325"/>
+      <c r="O13" s="325"/>
+      <c r="P13" s="325"/>
+      <c r="Q13" s="302"/>
+      <c r="R13" s="301"/>
+      <c r="S13" s="301"/>
+      <c r="T13" s="301"/>
+    </row>
+    <row r="14" spans="1:24" ht="15" customHeight="1">
+      <c r="H14" s="301"/>
+      <c r="I14" s="301"/>
+      <c r="J14" s="301"/>
+      <c r="K14" s="301"/>
+      <c r="L14" s="301"/>
+      <c r="M14" s="301"/>
+      <c r="N14" s="301"/>
+      <c r="O14" s="301"/>
+      <c r="P14" s="301"/>
+      <c r="Q14" s="301"/>
+      <c r="R14" s="301"/>
+      <c r="S14" s="301"/>
+      <c r="T14" s="301"/>
+    </row>
+    <row r="15" spans="1:24" s="3" customFormat="1" ht="15">
       <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
@@ -15061,8 +16206,18 @@
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:22" ht="15">
+      <c r="K15" s="304"/>
+      <c r="L15" s="304"/>
+      <c r="M15" s="304"/>
+      <c r="N15" s="304"/>
+      <c r="O15" s="304"/>
+      <c r="P15" s="304"/>
+      <c r="Q15" s="304"/>
+      <c r="R15" s="304"/>
+      <c r="S15" s="304"/>
+      <c r="T15" s="304"/>
+    </row>
+    <row r="16" spans="1:24" s="3" customFormat="1" ht="15">
       <c r="A16" s="19" t="s">
         <v>18</v>
       </c>
@@ -15076,23 +16231,19 @@
         <v>21</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>58</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="15">
       <c r="A17" s="23" t="s">
         <v>22</v>
       </c>
@@ -15106,23 +16257,19 @@
         <v>23</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>58</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:10" ht="15">
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="15">
       <c r="A18" s="27"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -15134,7 +16281,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="15">
       <c r="A19" s="28" t="s">
         <v>25</v>
       </c>
@@ -15148,37 +16295,33 @@
       <c r="I19" s="29"/>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:10" ht="15">
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="15">
       <c r="A20" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>62</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="1:10" ht="15">
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="15">
       <c r="A21" s="23" t="s">
         <v>30</v>
       </c>
@@ -15192,7 +16335,7 @@
         <v>31</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>32</v>
@@ -15200,15 +16343,11 @@
       <c r="G21" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="32"/>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="15">
       <c r="A22" s="27"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -15220,7 +16359,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" ht="15">
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="A23" s="33" t="s">
         <v>33</v>
       </c>
@@ -15234,176 +16373,634 @@
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" ht="15"/>
-    <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A27" s="34" t="s">
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A24" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="102.75" thickBot="1">
-      <c r="A28" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="39">
-        <v>500000</v>
-      </c>
-      <c r="C28" s="39">
-        <v>1000000</v>
-      </c>
-      <c r="D28" s="39">
-        <v>1500000</v>
-      </c>
-      <c r="E28" s="39">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="102.75" thickBot="1">
-      <c r="A29" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="59">
-        <v>500000</v>
-      </c>
-      <c r="C29" s="59">
-        <v>1000000</v>
-      </c>
-      <c r="D29" s="59">
-        <v>1000000</v>
-      </c>
-      <c r="E29" s="60">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="141" thickBot="1">
-      <c r="A30" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="59">
-        <v>250000</v>
-      </c>
-      <c r="C30" s="59">
-        <v>500000</v>
-      </c>
-      <c r="D30" s="59">
-        <v>500000</v>
-      </c>
-      <c r="E30" s="60">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A31" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="62">
-        <v>50000</v>
-      </c>
-      <c r="C31" s="62">
+      <c r="B24" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A25" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="37">
         <v>100000</v>
       </c>
-      <c r="D31" s="62">
+      <c r="C25" s="37">
         <v>100000</v>
       </c>
-      <c r="E31" s="63">
+      <c r="D25" s="37">
         <v>100000</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="25.5">
-      <c r="A32" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="65">
-        <v>228</v>
-      </c>
-      <c r="C32" s="66">
-        <v>435</v>
-      </c>
-      <c r="D32" s="67">
-        <v>538</v>
-      </c>
-      <c r="E32" s="68">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="26.25" thickBot="1">
-      <c r="A33" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="70">
-        <v>217</v>
-      </c>
-      <c r="C33" s="71">
-        <v>413</v>
-      </c>
-      <c r="D33" s="72">
-        <v>511</v>
-      </c>
-      <c r="E33" s="73">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15">
-      <c r="A34" s="402" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="403"/>
-      <c r="C34" s="403"/>
-      <c r="D34" s="403"/>
-      <c r="E34" s="404"/>
-    </row>
-    <row r="35" spans="1:5" ht="15">
-      <c r="A35" s="393" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="394"/>
-      <c r="C35" s="394"/>
-      <c r="D35" s="394"/>
-      <c r="E35" s="395"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A36" s="74"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="76"/>
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="25.5">
+      <c r="A26" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="25.5">
+      <c r="A27" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="39">
+        <f>B25</f>
+        <v>100000</v>
+      </c>
+      <c r="C27" s="39">
+        <f>C25</f>
+        <v>100000</v>
+      </c>
+      <c r="D27" s="39">
+        <f>D25</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="3" customFormat="1" ht="25.5">
+      <c r="A28" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" ht="25.5">
+      <c r="A29" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="40">
+        <f>B27*2</f>
+        <v>200000</v>
+      </c>
+      <c r="C29" s="40">
+        <f>C27*2</f>
+        <v>200000</v>
+      </c>
+      <c r="D29" s="40">
+        <f>D27*2</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A30" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+    </row>
+    <row r="31" spans="1:10" s="3" customFormat="1" ht="15">
+      <c r="A31" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+    </row>
+    <row r="32" spans="1:10" s="3" customFormat="1">
+      <c r="A32" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="39">
+        <v>2000</v>
+      </c>
+      <c r="C32" s="39">
+        <v>3000</v>
+      </c>
+      <c r="D32" s="39">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="3" customFormat="1" ht="90" thickBot="1">
+      <c r="A33" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="44">
+        <v>4000</v>
+      </c>
+      <c r="C33" s="44">
+        <v>6000</v>
+      </c>
+      <c r="D33" s="44">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A34" s="45"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A35" s="246" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="371" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="371"/>
+      <c r="D35" s="372"/>
+    </row>
+    <row r="36" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A36" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="47">
+        <v>5150</v>
+      </c>
+      <c r="C36" s="48">
+        <v>6440</v>
+      </c>
+      <c r="D36" s="49">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A37" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="50">
+        <v>6020</v>
+      </c>
+      <c r="C37" s="51">
+        <v>7730</v>
+      </c>
+      <c r="D37" s="52">
+        <v>9420</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A38" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="50">
+        <v>7560</v>
+      </c>
+      <c r="C38" s="51">
+        <v>9720</v>
+      </c>
+      <c r="D38" s="52">
+        <v>11850</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A39" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="50">
+        <v>7700</v>
+      </c>
+      <c r="C39" s="51">
+        <v>9810</v>
+      </c>
+      <c r="D39" s="52">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A40" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="50">
+        <v>7810</v>
+      </c>
+      <c r="C40" s="51">
+        <v>9930</v>
+      </c>
+      <c r="D40" s="52">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A41" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="50">
+        <v>7940</v>
+      </c>
+      <c r="C41" s="51">
+        <v>10100</v>
+      </c>
+      <c r="D41" s="52">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A42" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="50">
+        <v>8100</v>
+      </c>
+      <c r="C42" s="51">
+        <v>10200</v>
+      </c>
+      <c r="D42" s="52">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A43" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="53">
+        <v>9550</v>
+      </c>
+      <c r="C43" s="54">
+        <v>12390</v>
+      </c>
+      <c r="D43" s="55">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A44" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="371" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="371"/>
+      <c r="D44" s="372"/>
+    </row>
+    <row r="45" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A45" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="47">
+        <v>464</v>
+      </c>
+      <c r="C45" s="48">
+        <v>580</v>
+      </c>
+      <c r="D45" s="49">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A46" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="50">
+        <v>542</v>
+      </c>
+      <c r="C46" s="51">
+        <v>696</v>
+      </c>
+      <c r="D46" s="52">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A47" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="50">
+        <v>680</v>
+      </c>
+      <c r="C47" s="51">
+        <v>875</v>
+      </c>
+      <c r="D47" s="52">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A48" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="50">
+        <v>693</v>
+      </c>
+      <c r="C48" s="51">
+        <v>883</v>
+      </c>
+      <c r="D48" s="52">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A49" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="50">
+        <v>703</v>
+      </c>
+      <c r="C49" s="51">
+        <v>894</v>
+      </c>
+      <c r="D49" s="52">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A50" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="50">
+        <v>715</v>
+      </c>
+      <c r="C50" s="51">
+        <v>909</v>
+      </c>
+      <c r="D50" s="52">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A51" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="50">
+        <v>729</v>
+      </c>
+      <c r="C51" s="51">
+        <v>918</v>
+      </c>
+      <c r="D51" s="52">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A52" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="53">
+        <v>860</v>
+      </c>
+      <c r="C52" s="54">
+        <v>1115</v>
+      </c>
+      <c r="D52" s="55">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A53" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="371" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="371"/>
+      <c r="D53" s="372"/>
+    </row>
+    <row r="54" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A54" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="47">
+        <v>4893</v>
+      </c>
+      <c r="C54" s="48">
+        <v>6118</v>
+      </c>
+      <c r="D54" s="49">
+        <v>7363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A55" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="50">
+        <v>5719</v>
+      </c>
+      <c r="C55" s="51">
+        <v>7344</v>
+      </c>
+      <c r="D55" s="52">
+        <v>8949</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A56" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="50">
+        <v>7182</v>
+      </c>
+      <c r="C56" s="51">
+        <v>9234</v>
+      </c>
+      <c r="D56" s="52">
+        <v>11258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A57" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="50">
+        <v>7315</v>
+      </c>
+      <c r="C57" s="51">
+        <v>9320</v>
+      </c>
+      <c r="D57" s="52">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A58" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="50">
+        <v>7420</v>
+      </c>
+      <c r="C58" s="51">
+        <v>9434</v>
+      </c>
+      <c r="D58" s="52">
+        <v>11495</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A59" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="50">
+        <v>7543</v>
+      </c>
+      <c r="C59" s="51">
+        <v>9595</v>
+      </c>
+      <c r="D59" s="52">
+        <v>11619</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A60" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="50">
+        <v>7695</v>
+      </c>
+      <c r="C60" s="51">
+        <v>9690</v>
+      </c>
+      <c r="D60" s="52">
+        <v>11780</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A61" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="53">
+        <v>9073</v>
+      </c>
+      <c r="C61" s="54">
+        <v>11771</v>
+      </c>
+      <c r="D61" s="55">
+        <v>14440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A62" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="371" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="371"/>
+      <c r="D62" s="372"/>
+    </row>
+    <row r="63" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A63" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="47">
+        <v>440</v>
+      </c>
+      <c r="C63" s="48">
+        <v>551</v>
+      </c>
+      <c r="D63" s="49">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A64" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="50">
+        <v>515</v>
+      </c>
+      <c r="C64" s="51">
+        <v>661</v>
+      </c>
+      <c r="D64" s="52">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A65" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="50">
+        <v>646</v>
+      </c>
+      <c r="C65" s="51">
+        <v>831</v>
+      </c>
+      <c r="D65" s="52">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A66" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="50">
+        <v>658</v>
+      </c>
+      <c r="C66" s="51">
+        <v>839</v>
+      </c>
+      <c r="D66" s="52">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A67" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="50">
+        <v>668</v>
+      </c>
+      <c r="C67" s="51">
+        <v>849</v>
+      </c>
+      <c r="D67" s="52">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A68" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="50">
+        <v>679</v>
+      </c>
+      <c r="C68" s="51">
+        <v>864</v>
+      </c>
+      <c r="D68" s="52">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A69" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" s="50">
+        <v>693</v>
+      </c>
+      <c r="C69" s="51">
+        <v>872</v>
+      </c>
+      <c r="D69" s="52">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A70" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="53">
+        <v>817</v>
+      </c>
+      <c r="C70" s="54">
+        <v>1059</v>
+      </c>
+      <c r="D70" s="55">
+        <v>1300</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A34:E34"/>
+  <mergeCells count="8">
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B44:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>